--- a/BTH/final_allvar/seed1/decriptive_analysis_BTH.xlsx
+++ b/BTH/final_allvar/seed1/decriptive_analysis_BTH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\final_allvar\seed1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E504C493-24B6-4F43-A87E-DEC18391026C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792AD2E6-F9AB-4F17-AF5F-857BFB35ADC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="BTH_basic" sheetId="1" r:id="rId1"/>
     <sheet name="BTH_PM25" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
@@ -12019,7 +12016,37 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>PM2.5 concentration (ug/m3)</a:t>
+                  <a:t>PM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2.5</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> concentration bias (ug/m3)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13355,7309 +13382,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="bj"/>
-      <sheetName val="bj数据异常值"/>
-      <sheetName val="tj"/>
-      <sheetName val="hb"/>
-      <sheetName val="bj_PM25"/>
-      <sheetName val="tj_PM25"/>
-      <sheetName val="hb_PM25"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>PM2.5_Obs</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>PM2.5_Sim</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>PM2.5_Bias</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>PM2.5_revised</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>PM2.5_Bias_revised</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>137.31</v>
-          </cell>
-          <cell r="C2">
-            <v>113.07</v>
-          </cell>
-          <cell r="D2">
-            <v>-24.23</v>
-          </cell>
-          <cell r="F2">
-            <v>121.12</v>
-          </cell>
-          <cell r="G2">
-            <v>-16.18</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>172.9</v>
-          </cell>
-          <cell r="C3">
-            <v>78.569999999999993</v>
-          </cell>
-          <cell r="D3">
-            <v>-94.33</v>
-          </cell>
-          <cell r="F3">
-            <v>179.43</v>
-          </cell>
-          <cell r="G3">
-            <v>6.53</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>109.2</v>
-          </cell>
-          <cell r="C4">
-            <v>69.2</v>
-          </cell>
-          <cell r="D4">
-            <v>-40</v>
-          </cell>
-          <cell r="F4">
-            <v>94.99</v>
-          </cell>
-          <cell r="G4">
-            <v>-14.21</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>35.5</v>
-          </cell>
-          <cell r="C5">
-            <v>25.45</v>
-          </cell>
-          <cell r="D5">
-            <v>-10.050000000000001</v>
-          </cell>
-          <cell r="F5">
-            <v>26.53</v>
-          </cell>
-          <cell r="G5">
-            <v>-8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>62.27</v>
-          </cell>
-          <cell r="C6">
-            <v>61.75</v>
-          </cell>
-          <cell r="D6">
-            <v>-0.52</v>
-          </cell>
-          <cell r="F6">
-            <v>65.55</v>
-          </cell>
-          <cell r="G6">
-            <v>3.28</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>117.91</v>
-          </cell>
-          <cell r="C7">
-            <v>104.15</v>
-          </cell>
-          <cell r="D7">
-            <v>-13.76</v>
-          </cell>
-          <cell r="F7">
-            <v>115.55</v>
-          </cell>
-          <cell r="G7">
-            <v>-2.36</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>71.05</v>
-          </cell>
-          <cell r="C8">
-            <v>35.04</v>
-          </cell>
-          <cell r="D8">
-            <v>-36.01</v>
-          </cell>
-          <cell r="F8">
-            <v>46.99</v>
-          </cell>
-          <cell r="G8">
-            <v>-24.06</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>122.88</v>
-          </cell>
-          <cell r="C9">
-            <v>45.09</v>
-          </cell>
-          <cell r="D9">
-            <v>-77.790000000000006</v>
-          </cell>
-          <cell r="F9">
-            <v>115.27</v>
-          </cell>
-          <cell r="G9">
-            <v>-7.61</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>42.59</v>
-          </cell>
-          <cell r="C10">
-            <v>41.78</v>
-          </cell>
-          <cell r="D10">
-            <v>-0.82</v>
-          </cell>
-          <cell r="F10">
-            <v>39.65</v>
-          </cell>
-          <cell r="G10">
-            <v>-2.94</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>115.54</v>
-          </cell>
-          <cell r="C11">
-            <v>72.819999999999993</v>
-          </cell>
-          <cell r="D11">
-            <v>-42.72</v>
-          </cell>
-          <cell r="F11">
-            <v>76.62</v>
-          </cell>
-          <cell r="G11">
-            <v>-38.92</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>153.21</v>
-          </cell>
-          <cell r="C12">
-            <v>113.06</v>
-          </cell>
-          <cell r="D12">
-            <v>-40.15</v>
-          </cell>
-          <cell r="F12">
-            <v>148.63</v>
-          </cell>
-          <cell r="G12">
-            <v>-4.58</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>209.5</v>
-          </cell>
-          <cell r="C13">
-            <v>142.24</v>
-          </cell>
-          <cell r="D13">
-            <v>-67.25</v>
-          </cell>
-          <cell r="F13">
-            <v>227.03</v>
-          </cell>
-          <cell r="G13">
-            <v>17.54</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>314.68</v>
-          </cell>
-          <cell r="C14">
-            <v>122.14</v>
-          </cell>
-          <cell r="D14">
-            <v>-192.54</v>
-          </cell>
-          <cell r="F14">
-            <v>236.96</v>
-          </cell>
-          <cell r="G14">
-            <v>-77.72</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>111.18</v>
-          </cell>
-          <cell r="C15">
-            <v>35.840000000000003</v>
-          </cell>
-          <cell r="D15">
-            <v>-75.34</v>
-          </cell>
-          <cell r="F15">
-            <v>98.07</v>
-          </cell>
-          <cell r="G15">
-            <v>-13.1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>55.12</v>
-          </cell>
-          <cell r="C16">
-            <v>49.16</v>
-          </cell>
-          <cell r="D16">
-            <v>-5.96</v>
-          </cell>
-          <cell r="F16">
-            <v>61.04</v>
-          </cell>
-          <cell r="G16">
-            <v>5.92</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>73.010000000000005</v>
-          </cell>
-          <cell r="C17">
-            <v>52.97</v>
-          </cell>
-          <cell r="D17">
-            <v>-20.04</v>
-          </cell>
-          <cell r="F17">
-            <v>57.03</v>
-          </cell>
-          <cell r="G17">
-            <v>-15.98</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>43.87</v>
-          </cell>
-          <cell r="C18">
-            <v>53.43</v>
-          </cell>
-          <cell r="D18">
-            <v>9.56</v>
-          </cell>
-          <cell r="F18">
-            <v>56.95</v>
-          </cell>
-          <cell r="G18">
-            <v>13.08</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>85.97</v>
-          </cell>
-          <cell r="C19">
-            <v>82.17</v>
-          </cell>
-          <cell r="D19">
-            <v>-3.79</v>
-          </cell>
-          <cell r="F19">
-            <v>84.28</v>
-          </cell>
-          <cell r="G19">
-            <v>-1.69</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>24.47</v>
-          </cell>
-          <cell r="C20">
-            <v>27.32</v>
-          </cell>
-          <cell r="D20">
-            <v>2.85</v>
-          </cell>
-          <cell r="F20">
-            <v>30.03</v>
-          </cell>
-          <cell r="G20">
-            <v>5.56</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>98.21</v>
-          </cell>
-          <cell r="C21">
-            <v>64.67</v>
-          </cell>
-          <cell r="D21">
-            <v>-33.549999999999997</v>
-          </cell>
-          <cell r="F21">
-            <v>76.28</v>
-          </cell>
-          <cell r="G21">
-            <v>-21.93</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>196.28</v>
-          </cell>
-          <cell r="C22">
-            <v>88.44</v>
-          </cell>
-          <cell r="D22">
-            <v>-107.84</v>
-          </cell>
-          <cell r="F22">
-            <v>209.64</v>
-          </cell>
-          <cell r="G22">
-            <v>13.36</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>101.53</v>
-          </cell>
-          <cell r="C23">
-            <v>60.14</v>
-          </cell>
-          <cell r="D23">
-            <v>-41.38</v>
-          </cell>
-          <cell r="F23">
-            <v>95.86</v>
-          </cell>
-          <cell r="G23">
-            <v>-5.67</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>133.77000000000001</v>
-          </cell>
-          <cell r="C24">
-            <v>80.260000000000005</v>
-          </cell>
-          <cell r="D24">
-            <v>-53.5</v>
-          </cell>
-          <cell r="F24">
-            <v>112.26</v>
-          </cell>
-          <cell r="G24">
-            <v>-21.51</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>106.58</v>
-          </cell>
-          <cell r="C25">
-            <v>45.23</v>
-          </cell>
-          <cell r="D25">
-            <v>-61.35</v>
-          </cell>
-          <cell r="F25">
-            <v>76.56</v>
-          </cell>
-          <cell r="G25">
-            <v>-30.02</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>17.48</v>
-          </cell>
-          <cell r="C26">
-            <v>20.3</v>
-          </cell>
-          <cell r="D26">
-            <v>2.82</v>
-          </cell>
-          <cell r="F26">
-            <v>20.87</v>
-          </cell>
-          <cell r="G26">
-            <v>3.39</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>40.92</v>
-          </cell>
-          <cell r="C27">
-            <v>47.4</v>
-          </cell>
-          <cell r="D27">
-            <v>6.48</v>
-          </cell>
-          <cell r="F27">
-            <v>47.81</v>
-          </cell>
-          <cell r="G27">
-            <v>6.89</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>61.22</v>
-          </cell>
-          <cell r="C28">
-            <v>53.99</v>
-          </cell>
-          <cell r="D28">
-            <v>-7.24</v>
-          </cell>
-          <cell r="F28">
-            <v>58.11</v>
-          </cell>
-          <cell r="G28">
-            <v>-3.11</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>12.88</v>
-          </cell>
-          <cell r="C29">
-            <v>18.38</v>
-          </cell>
-          <cell r="D29">
-            <v>5.5</v>
-          </cell>
-          <cell r="F29">
-            <v>23.22</v>
-          </cell>
-          <cell r="G29">
-            <v>10.34</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>28.3</v>
-          </cell>
-          <cell r="C30">
-            <v>29.6</v>
-          </cell>
-          <cell r="D30">
-            <v>1.3</v>
-          </cell>
-          <cell r="F30">
-            <v>28.91</v>
-          </cell>
-          <cell r="G30">
-            <v>0.61</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>79.45</v>
-          </cell>
-          <cell r="C31">
-            <v>83.46</v>
-          </cell>
-          <cell r="D31">
-            <v>4.01</v>
-          </cell>
-          <cell r="F31">
-            <v>91.97</v>
-          </cell>
-          <cell r="G31">
-            <v>12.52</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="B32">
-            <v>140.26</v>
-          </cell>
-          <cell r="C32">
-            <v>133.28</v>
-          </cell>
-          <cell r="D32">
-            <v>-6.97</v>
-          </cell>
-          <cell r="F32">
-            <v>134.68</v>
-          </cell>
-          <cell r="G32">
-            <v>-5.58</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="B33">
-            <v>120.61</v>
-          </cell>
-          <cell r="C33">
-            <v>92.65</v>
-          </cell>
-          <cell r="D33">
-            <v>-27.97</v>
-          </cell>
-          <cell r="F33">
-            <v>104.55</v>
-          </cell>
-          <cell r="G33">
-            <v>-16.07</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="B34">
-            <v>11</v>
-          </cell>
-          <cell r="C34">
-            <v>9.9600000000000009</v>
-          </cell>
-          <cell r="D34">
-            <v>-1.04</v>
-          </cell>
-          <cell r="F34">
-            <v>19.32</v>
-          </cell>
-          <cell r="G34">
-            <v>8.32</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="B35">
-            <v>27.2</v>
-          </cell>
-          <cell r="C35">
-            <v>18.55</v>
-          </cell>
-          <cell r="D35">
-            <v>-8.65</v>
-          </cell>
-          <cell r="F35">
-            <v>25.33</v>
-          </cell>
-          <cell r="G35">
-            <v>-1.87</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="B36">
-            <v>67.209999999999994</v>
-          </cell>
-          <cell r="C36">
-            <v>35.67</v>
-          </cell>
-          <cell r="D36">
-            <v>-31.54</v>
-          </cell>
-          <cell r="F36">
-            <v>64.25</v>
-          </cell>
-          <cell r="G36">
-            <v>-2.96</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="B37">
-            <v>16.14</v>
-          </cell>
-          <cell r="C37">
-            <v>12.04</v>
-          </cell>
-          <cell r="D37">
-            <v>-4.1100000000000003</v>
-          </cell>
-          <cell r="F37">
-            <v>11.19</v>
-          </cell>
-          <cell r="G37">
-            <v>-4.95</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="B38">
-            <v>22.59</v>
-          </cell>
-          <cell r="C38">
-            <v>22.38</v>
-          </cell>
-          <cell r="D38">
-            <v>-0.21</v>
-          </cell>
-          <cell r="F38">
-            <v>21.1</v>
-          </cell>
-          <cell r="G38">
-            <v>-1.49</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="B39">
-            <v>104.45</v>
-          </cell>
-          <cell r="C39">
-            <v>55.31</v>
-          </cell>
-          <cell r="D39">
-            <v>-49.14</v>
-          </cell>
-          <cell r="F39">
-            <v>104.29</v>
-          </cell>
-          <cell r="G39">
-            <v>-0.16</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="B40">
-            <v>117.56</v>
-          </cell>
-          <cell r="C40">
-            <v>54.39</v>
-          </cell>
-          <cell r="D40">
-            <v>-63.17</v>
-          </cell>
-          <cell r="F40">
-            <v>119.04</v>
-          </cell>
-          <cell r="G40">
-            <v>1.49</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="B41">
-            <v>44.67</v>
-          </cell>
-          <cell r="C41">
-            <v>30.38</v>
-          </cell>
-          <cell r="D41">
-            <v>-14.29</v>
-          </cell>
-          <cell r="F41">
-            <v>30.66</v>
-          </cell>
-          <cell r="G41">
-            <v>-14.01</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="B42">
-            <v>32.200000000000003</v>
-          </cell>
-          <cell r="C42">
-            <v>39.6</v>
-          </cell>
-          <cell r="D42">
-            <v>7.41</v>
-          </cell>
-          <cell r="F42">
-            <v>41.72</v>
-          </cell>
-          <cell r="G42">
-            <v>9.52</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="B43">
-            <v>116.33</v>
-          </cell>
-          <cell r="C43">
-            <v>77.28</v>
-          </cell>
-          <cell r="D43">
-            <v>-39.04</v>
-          </cell>
-          <cell r="F43">
-            <v>101.56</v>
-          </cell>
-          <cell r="G43">
-            <v>-14.77</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="B44">
-            <v>224.56</v>
-          </cell>
-          <cell r="C44">
-            <v>100.85</v>
-          </cell>
-          <cell r="D44">
-            <v>-123.71</v>
-          </cell>
-          <cell r="F44">
-            <v>198.31</v>
-          </cell>
-          <cell r="G44">
-            <v>-26.25</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="B45">
-            <v>262.87</v>
-          </cell>
-          <cell r="C45">
-            <v>123.41</v>
-          </cell>
-          <cell r="D45">
-            <v>-139.46</v>
-          </cell>
-          <cell r="F45">
-            <v>281.13</v>
-          </cell>
-          <cell r="G45">
-            <v>18.260000000000002</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="B46">
-            <v>123.22</v>
-          </cell>
-          <cell r="C46">
-            <v>48.91</v>
-          </cell>
-          <cell r="D46">
-            <v>-74.3</v>
-          </cell>
-          <cell r="F46">
-            <v>107.86</v>
-          </cell>
-          <cell r="G46">
-            <v>-15.35</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="B47">
-            <v>22.14</v>
-          </cell>
-          <cell r="C47">
-            <v>20.9</v>
-          </cell>
-          <cell r="D47">
-            <v>-1.24</v>
-          </cell>
-          <cell r="F47">
-            <v>23.96</v>
-          </cell>
-          <cell r="G47">
-            <v>1.81</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="B48">
-            <v>48.8</v>
-          </cell>
-          <cell r="C48">
-            <v>35.25</v>
-          </cell>
-          <cell r="D48">
-            <v>-13.56</v>
-          </cell>
-          <cell r="F48">
-            <v>31.56</v>
-          </cell>
-          <cell r="G48">
-            <v>-17.239999999999998</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="B49">
-            <v>221.85</v>
-          </cell>
-          <cell r="C49">
-            <v>80.709999999999994</v>
-          </cell>
-          <cell r="D49">
-            <v>-141.13999999999999</v>
-          </cell>
-          <cell r="F49">
-            <v>94.5</v>
-          </cell>
-          <cell r="G49">
-            <v>-127.35</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="B50">
-            <v>138.28</v>
-          </cell>
-          <cell r="C50">
-            <v>83.86</v>
-          </cell>
-          <cell r="D50">
-            <v>-54.42</v>
-          </cell>
-          <cell r="F50">
-            <v>134.6</v>
-          </cell>
-          <cell r="G50">
-            <v>-3.67</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="B51">
-            <v>149.99</v>
-          </cell>
-          <cell r="C51">
-            <v>59.45</v>
-          </cell>
-          <cell r="D51">
-            <v>-90.54</v>
-          </cell>
-          <cell r="F51">
-            <v>83.37</v>
-          </cell>
-          <cell r="G51">
-            <v>-66.63</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="B52">
-            <v>41.82</v>
-          </cell>
-          <cell r="C52">
-            <v>10.4</v>
-          </cell>
-          <cell r="D52">
-            <v>-31.42</v>
-          </cell>
-          <cell r="F52">
-            <v>20.350000000000001</v>
-          </cell>
-          <cell r="G52">
-            <v>-21.46</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="B53">
-            <v>52.78</v>
-          </cell>
-          <cell r="C53">
-            <v>37.159999999999997</v>
-          </cell>
-          <cell r="D53">
-            <v>-15.63</v>
-          </cell>
-          <cell r="F53">
-            <v>43.96</v>
-          </cell>
-          <cell r="G53">
-            <v>-8.82</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="B54">
-            <v>145.94999999999999</v>
-          </cell>
-          <cell r="C54">
-            <v>110.75</v>
-          </cell>
-          <cell r="D54">
-            <v>-35.200000000000003</v>
-          </cell>
-          <cell r="F54">
-            <v>108.5</v>
-          </cell>
-          <cell r="G54">
-            <v>-37.450000000000003</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="B55">
-            <v>77.53</v>
-          </cell>
-          <cell r="C55">
-            <v>48.13</v>
-          </cell>
-          <cell r="D55">
-            <v>-29.41</v>
-          </cell>
-          <cell r="F55">
-            <v>61.64</v>
-          </cell>
-          <cell r="G55">
-            <v>-15.9</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="B56">
-            <v>14.2</v>
-          </cell>
-          <cell r="C56">
-            <v>20.13</v>
-          </cell>
-          <cell r="D56">
-            <v>5.93</v>
-          </cell>
-          <cell r="F56">
-            <v>18.43</v>
-          </cell>
-          <cell r="G56">
-            <v>4.2300000000000004</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="B57">
-            <v>22.7</v>
-          </cell>
-          <cell r="C57">
-            <v>29.78</v>
-          </cell>
-          <cell r="D57">
-            <v>7.08</v>
-          </cell>
-          <cell r="F57">
-            <v>26.7</v>
-          </cell>
-          <cell r="G57">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="B58">
-            <v>114.66</v>
-          </cell>
-          <cell r="C58">
-            <v>55.08</v>
-          </cell>
-          <cell r="D58">
-            <v>-59.58</v>
-          </cell>
-          <cell r="F58">
-            <v>64.31</v>
-          </cell>
-          <cell r="G58">
-            <v>-50.34</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="B59">
-            <v>51.99</v>
-          </cell>
-          <cell r="C59">
-            <v>23.21</v>
-          </cell>
-          <cell r="D59">
-            <v>-28.77</v>
-          </cell>
-          <cell r="F59">
-            <v>45.44</v>
-          </cell>
-          <cell r="G59">
-            <v>-6.54</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="B60">
-            <v>52.71</v>
-          </cell>
-          <cell r="C60">
-            <v>18.38</v>
-          </cell>
-          <cell r="D60">
-            <v>-34.33</v>
-          </cell>
-          <cell r="F60">
-            <v>38.479999999999997</v>
-          </cell>
-          <cell r="G60">
-            <v>-14.23</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="B61">
-            <v>7.67</v>
-          </cell>
-          <cell r="C61">
-            <v>4.33</v>
-          </cell>
-          <cell r="D61">
-            <v>-3.35</v>
-          </cell>
-          <cell r="F61">
-            <v>11.54</v>
-          </cell>
-          <cell r="G61">
-            <v>3.86</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="B62">
-            <v>24.51</v>
-          </cell>
-          <cell r="C62">
-            <v>16.48</v>
-          </cell>
-          <cell r="D62">
-            <v>-8.0299999999999994</v>
-          </cell>
-          <cell r="F62">
-            <v>23.29</v>
-          </cell>
-          <cell r="G62">
-            <v>-1.21</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="B63">
-            <v>105.44</v>
-          </cell>
-          <cell r="C63">
-            <v>57.23</v>
-          </cell>
-          <cell r="D63">
-            <v>-48.22</v>
-          </cell>
-          <cell r="F63">
-            <v>68.790000000000006</v>
-          </cell>
-          <cell r="G63">
-            <v>-36.65</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="B64">
-            <v>187.77</v>
-          </cell>
-          <cell r="C64">
-            <v>91.23</v>
-          </cell>
-          <cell r="D64">
-            <v>-96.54</v>
-          </cell>
-          <cell r="F64">
-            <v>136.57</v>
-          </cell>
-          <cell r="G64">
-            <v>-51.2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="B65">
-            <v>218.56</v>
-          </cell>
-          <cell r="C65">
-            <v>110.77</v>
-          </cell>
-          <cell r="D65">
-            <v>-107.79</v>
-          </cell>
-          <cell r="F65">
-            <v>212.46</v>
-          </cell>
-          <cell r="G65">
-            <v>-6.1</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="B66">
-            <v>134.06</v>
-          </cell>
-          <cell r="C66">
-            <v>89.76</v>
-          </cell>
-          <cell r="D66">
-            <v>-44.31</v>
-          </cell>
-          <cell r="F66">
-            <v>171.67</v>
-          </cell>
-          <cell r="G66">
-            <v>37.6</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="B67">
-            <v>8.5299999999999994</v>
-          </cell>
-          <cell r="C67">
-            <v>5.31</v>
-          </cell>
-          <cell r="D67">
-            <v>-3.22</v>
-          </cell>
-          <cell r="F67">
-            <v>12.72</v>
-          </cell>
-          <cell r="G67">
-            <v>4.1900000000000004</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="B68">
-            <v>31.64</v>
-          </cell>
-          <cell r="C68">
-            <v>18.940000000000001</v>
-          </cell>
-          <cell r="D68">
-            <v>-12.71</v>
-          </cell>
-          <cell r="F68">
-            <v>27.93</v>
-          </cell>
-          <cell r="G68">
-            <v>-3.71</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="B69">
-            <v>37.4</v>
-          </cell>
-          <cell r="C69">
-            <v>19.149999999999999</v>
-          </cell>
-          <cell r="D69">
-            <v>-18.25</v>
-          </cell>
-          <cell r="F69">
-            <v>28.39</v>
-          </cell>
-          <cell r="G69">
-            <v>-9.01</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="B70">
-            <v>61.72</v>
-          </cell>
-          <cell r="C70">
-            <v>39.4</v>
-          </cell>
-          <cell r="D70">
-            <v>-22.33</v>
-          </cell>
-          <cell r="F70">
-            <v>66.739999999999995</v>
-          </cell>
-          <cell r="G70">
-            <v>5.0199999999999996</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="B71">
-            <v>63.63</v>
-          </cell>
-          <cell r="C71">
-            <v>35.96</v>
-          </cell>
-          <cell r="D71">
-            <v>-27.67</v>
-          </cell>
-          <cell r="F71">
-            <v>71.75</v>
-          </cell>
-          <cell r="G71">
-            <v>8.1300000000000008</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="B72">
-            <v>94.29</v>
-          </cell>
-          <cell r="C72">
-            <v>95.11</v>
-          </cell>
-          <cell r="D72">
-            <v>0.82</v>
-          </cell>
-          <cell r="F72">
-            <v>138.71</v>
-          </cell>
-          <cell r="G72">
-            <v>44.42</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="B73">
-            <v>105.01</v>
-          </cell>
-          <cell r="C73">
-            <v>42.06</v>
-          </cell>
-          <cell r="D73">
-            <v>-62.95</v>
-          </cell>
-          <cell r="F73">
-            <v>101.54</v>
-          </cell>
-          <cell r="G73">
-            <v>-3.46</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="B74">
-            <v>206.47</v>
-          </cell>
-          <cell r="C74">
-            <v>108.85</v>
-          </cell>
-          <cell r="D74">
-            <v>-97.62</v>
-          </cell>
-          <cell r="F74">
-            <v>188.4</v>
-          </cell>
-          <cell r="G74">
-            <v>-18.07</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="B75">
-            <v>172.75</v>
-          </cell>
-          <cell r="C75">
-            <v>79.23</v>
-          </cell>
-          <cell r="D75">
-            <v>-93.53</v>
-          </cell>
-          <cell r="F75">
-            <v>168.95</v>
-          </cell>
-          <cell r="G75">
-            <v>-3.81</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="B76">
-            <v>50.76</v>
-          </cell>
-          <cell r="C76">
-            <v>76.95</v>
-          </cell>
-          <cell r="D76">
-            <v>26.2</v>
-          </cell>
-          <cell r="F76">
-            <v>76.55</v>
-          </cell>
-          <cell r="G76">
-            <v>25.8</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="B77">
-            <v>78.650000000000006</v>
-          </cell>
-          <cell r="C77">
-            <v>60.28</v>
-          </cell>
-          <cell r="D77">
-            <v>-18.37</v>
-          </cell>
-          <cell r="F77">
-            <v>77.64</v>
-          </cell>
-          <cell r="G77">
-            <v>-1.01</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="B78">
-            <v>48.46</v>
-          </cell>
-          <cell r="C78">
-            <v>18.079999999999998</v>
-          </cell>
-          <cell r="D78">
-            <v>-30.37</v>
-          </cell>
-          <cell r="F78">
-            <v>35.549999999999997</v>
-          </cell>
-          <cell r="G78">
-            <v>-12.91</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="B79">
-            <v>20.47</v>
-          </cell>
-          <cell r="C79">
-            <v>8.49</v>
-          </cell>
-          <cell r="D79">
-            <v>-11.98</v>
-          </cell>
-          <cell r="F79">
-            <v>22.4</v>
-          </cell>
-          <cell r="G79">
-            <v>1.93</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="B80">
-            <v>20.77</v>
-          </cell>
-          <cell r="C80">
-            <v>10.88</v>
-          </cell>
-          <cell r="D80">
-            <v>-9.89</v>
-          </cell>
-          <cell r="F80">
-            <v>17.93</v>
-          </cell>
-          <cell r="G80">
-            <v>-2.84</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="B81">
-            <v>34.58</v>
-          </cell>
-          <cell r="C81">
-            <v>15.19</v>
-          </cell>
-          <cell r="D81">
-            <v>-19.39</v>
-          </cell>
-          <cell r="F81">
-            <v>33.159999999999997</v>
-          </cell>
-          <cell r="G81">
-            <v>-1.42</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="B82">
-            <v>76.59</v>
-          </cell>
-          <cell r="C82">
-            <v>48.88</v>
-          </cell>
-          <cell r="D82">
-            <v>-27.72</v>
-          </cell>
-          <cell r="F82">
-            <v>73.989999999999995</v>
-          </cell>
-          <cell r="G82">
-            <v>-2.6</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="B83">
-            <v>121.21</v>
-          </cell>
-          <cell r="C83">
-            <v>86.25</v>
-          </cell>
-          <cell r="D83">
-            <v>-34.96</v>
-          </cell>
-          <cell r="F83">
-            <v>113.74</v>
-          </cell>
-          <cell r="G83">
-            <v>-7.47</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="B84">
-            <v>103.35</v>
-          </cell>
-          <cell r="C84">
-            <v>87.6</v>
-          </cell>
-          <cell r="D84">
-            <v>-15.75</v>
-          </cell>
-          <cell r="F84">
-            <v>98.04</v>
-          </cell>
-          <cell r="G84">
-            <v>-5.31</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="B85">
-            <v>103.26</v>
-          </cell>
-          <cell r="C85">
-            <v>86.53</v>
-          </cell>
-          <cell r="D85">
-            <v>-16.73</v>
-          </cell>
-          <cell r="F85">
-            <v>106.49</v>
-          </cell>
-          <cell r="G85">
-            <v>3.23</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="B86">
-            <v>67.55</v>
-          </cell>
-          <cell r="C86">
-            <v>34.35</v>
-          </cell>
-          <cell r="D86">
-            <v>-33.200000000000003</v>
-          </cell>
-          <cell r="F86">
-            <v>48.89</v>
-          </cell>
-          <cell r="G86">
-            <v>-18.670000000000002</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="B87">
-            <v>73.87</v>
-          </cell>
-          <cell r="C87">
-            <v>29.45</v>
-          </cell>
-          <cell r="D87">
-            <v>-44.42</v>
-          </cell>
-          <cell r="F87">
-            <v>54.62</v>
-          </cell>
-          <cell r="G87">
-            <v>-19.25</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="B88">
-            <v>145.05000000000001</v>
-          </cell>
-          <cell r="C88">
-            <v>90.35</v>
-          </cell>
-          <cell r="D88">
-            <v>-54.69</v>
-          </cell>
-          <cell r="F88">
-            <v>129.36000000000001</v>
-          </cell>
-          <cell r="G88">
-            <v>-15.69</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="B89">
-            <v>146.32</v>
-          </cell>
-          <cell r="C89">
-            <v>102.14</v>
-          </cell>
-          <cell r="D89">
-            <v>-44.17</v>
-          </cell>
-          <cell r="F89">
-            <v>115.18</v>
-          </cell>
-          <cell r="G89">
-            <v>-31.14</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="B90">
-            <v>60.13</v>
-          </cell>
-          <cell r="C90">
-            <v>34.86</v>
-          </cell>
-          <cell r="D90">
-            <v>-25.28</v>
-          </cell>
-          <cell r="F90">
-            <v>47.09</v>
-          </cell>
-          <cell r="G90">
-            <v>-13.04</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="B91">
-            <v>37.49</v>
-          </cell>
-          <cell r="C91">
-            <v>20.23</v>
-          </cell>
-          <cell r="D91">
-            <v>-17.27</v>
-          </cell>
-          <cell r="F91">
-            <v>34.880000000000003</v>
-          </cell>
-          <cell r="G91">
-            <v>-2.61</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="B92">
-            <v>29.16</v>
-          </cell>
-          <cell r="C92">
-            <v>27.94</v>
-          </cell>
-          <cell r="D92">
-            <v>-1.22</v>
-          </cell>
-          <cell r="F92">
-            <v>37.409999999999997</v>
-          </cell>
-          <cell r="G92">
-            <v>8.25</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="B93">
-            <v>63.15</v>
-          </cell>
-          <cell r="C93">
-            <v>42.75</v>
-          </cell>
-          <cell r="D93">
-            <v>-20.399999999999999</v>
-          </cell>
-          <cell r="F93">
-            <v>59.37</v>
-          </cell>
-          <cell r="G93">
-            <v>-3.78</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="B94">
-            <v>54</v>
-          </cell>
-          <cell r="C94">
-            <v>20.49</v>
-          </cell>
-          <cell r="D94">
-            <v>-33.520000000000003</v>
-          </cell>
-          <cell r="F94">
-            <v>37.51</v>
-          </cell>
-          <cell r="G94">
-            <v>-16.489999999999998</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="B95">
-            <v>19.75</v>
-          </cell>
-          <cell r="C95">
-            <v>6.96</v>
-          </cell>
-          <cell r="D95">
-            <v>-12.8</v>
-          </cell>
-          <cell r="F95">
-            <v>19.98</v>
-          </cell>
-          <cell r="G95">
-            <v>0.23</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="B96">
-            <v>23.67</v>
-          </cell>
-          <cell r="C96">
-            <v>13.25</v>
-          </cell>
-          <cell r="D96">
-            <v>-10.42</v>
-          </cell>
-          <cell r="F96">
-            <v>25.47</v>
-          </cell>
-          <cell r="G96">
-            <v>1.8</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="B97">
-            <v>93.87</v>
-          </cell>
-          <cell r="C97">
-            <v>65.290000000000006</v>
-          </cell>
-          <cell r="D97">
-            <v>-28.58</v>
-          </cell>
-          <cell r="F97">
-            <v>83.94</v>
-          </cell>
-          <cell r="G97">
-            <v>-9.93</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="B98">
-            <v>156.63999999999999</v>
-          </cell>
-          <cell r="C98">
-            <v>96.44</v>
-          </cell>
-          <cell r="D98">
-            <v>-60.2</v>
-          </cell>
-          <cell r="F98">
-            <v>141.58000000000001</v>
-          </cell>
-          <cell r="G98">
-            <v>-15.06</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="B99">
-            <v>143.81</v>
-          </cell>
-          <cell r="C99">
-            <v>62.51</v>
-          </cell>
-          <cell r="D99">
-            <v>-81.3</v>
-          </cell>
-          <cell r="F99">
-            <v>134.97</v>
-          </cell>
-          <cell r="G99">
-            <v>-8.83</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="B100">
-            <v>140.72999999999999</v>
-          </cell>
-          <cell r="C100">
-            <v>62.47</v>
-          </cell>
-          <cell r="D100">
-            <v>-78.260000000000005</v>
-          </cell>
-          <cell r="F100">
-            <v>97.67</v>
-          </cell>
-          <cell r="G100">
-            <v>-43.06</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="B101">
-            <v>12.56</v>
-          </cell>
-          <cell r="C101">
-            <v>19.399999999999999</v>
-          </cell>
-          <cell r="D101">
-            <v>6.85</v>
-          </cell>
-          <cell r="F101">
-            <v>36.119999999999997</v>
-          </cell>
-          <cell r="G101">
-            <v>23.56</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="B102">
-            <v>26.77</v>
-          </cell>
-          <cell r="C102">
-            <v>16.98</v>
-          </cell>
-          <cell r="D102">
-            <v>-9.7899999999999991</v>
-          </cell>
-          <cell r="F102">
-            <v>25.8</v>
-          </cell>
-          <cell r="G102">
-            <v>-0.97</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="B103">
-            <v>52.95</v>
-          </cell>
-          <cell r="C103">
-            <v>20.170000000000002</v>
-          </cell>
-          <cell r="D103">
-            <v>-32.79</v>
-          </cell>
-          <cell r="F103">
-            <v>71.36</v>
-          </cell>
-          <cell r="G103">
-            <v>18.41</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>103</v>
-          </cell>
-          <cell r="B104">
-            <v>106.62</v>
-          </cell>
-          <cell r="C104">
-            <v>20.010000000000002</v>
-          </cell>
-          <cell r="D104">
-            <v>-86.6</v>
-          </cell>
-          <cell r="F104">
-            <v>86.84</v>
-          </cell>
-          <cell r="G104">
-            <v>-19.77</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>104</v>
-          </cell>
-          <cell r="B105">
-            <v>25.23</v>
-          </cell>
-          <cell r="C105">
-            <v>3.05</v>
-          </cell>
-          <cell r="D105">
-            <v>-22.17</v>
-          </cell>
-          <cell r="F105">
-            <v>21.74</v>
-          </cell>
-          <cell r="G105">
-            <v>-3.48</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>105</v>
-          </cell>
-          <cell r="B106">
-            <v>64.66</v>
-          </cell>
-          <cell r="C106">
-            <v>19.010000000000002</v>
-          </cell>
-          <cell r="D106">
-            <v>-45.64</v>
-          </cell>
-          <cell r="F106">
-            <v>61.74</v>
-          </cell>
-          <cell r="G106">
-            <v>-2.91</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>106</v>
-          </cell>
-          <cell r="B107">
-            <v>130.30000000000001</v>
-          </cell>
-          <cell r="C107">
-            <v>88.18</v>
-          </cell>
-          <cell r="D107">
-            <v>-42.13</v>
-          </cell>
-          <cell r="F107">
-            <v>116.24</v>
-          </cell>
-          <cell r="G107">
-            <v>-14.07</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>107</v>
-          </cell>
-          <cell r="B108">
-            <v>57.9</v>
-          </cell>
-          <cell r="C108">
-            <v>47.78</v>
-          </cell>
-          <cell r="D108">
-            <v>-10.119999999999999</v>
-          </cell>
-          <cell r="F108">
-            <v>57.44</v>
-          </cell>
-          <cell r="G108">
-            <v>-0.46</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>108</v>
-          </cell>
-          <cell r="B109">
-            <v>62.72</v>
-          </cell>
-          <cell r="C109">
-            <v>34.840000000000003</v>
-          </cell>
-          <cell r="D109">
-            <v>-27.88</v>
-          </cell>
-          <cell r="F109">
-            <v>55.43</v>
-          </cell>
-          <cell r="G109">
-            <v>-7.29</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>109</v>
-          </cell>
-          <cell r="B110">
-            <v>62.49</v>
-          </cell>
-          <cell r="C110">
-            <v>20.309999999999999</v>
-          </cell>
-          <cell r="D110">
-            <v>-42.18</v>
-          </cell>
-          <cell r="F110">
-            <v>62.43</v>
-          </cell>
-          <cell r="G110">
-            <v>-0.06</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>110</v>
-          </cell>
-          <cell r="B111">
-            <v>44.21</v>
-          </cell>
-          <cell r="C111">
-            <v>11.54</v>
-          </cell>
-          <cell r="D111">
-            <v>-32.67</v>
-          </cell>
-          <cell r="F111">
-            <v>45.71</v>
-          </cell>
-          <cell r="G111">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>111</v>
-          </cell>
-          <cell r="B112">
-            <v>52.7</v>
-          </cell>
-          <cell r="C112">
-            <v>24.49</v>
-          </cell>
-          <cell r="D112">
-            <v>-28.21</v>
-          </cell>
-          <cell r="F112">
-            <v>52.3</v>
-          </cell>
-          <cell r="G112">
-            <v>-0.4</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>112</v>
-          </cell>
-          <cell r="B113">
-            <v>50.74</v>
-          </cell>
-          <cell r="C113">
-            <v>22.56</v>
-          </cell>
-          <cell r="D113">
-            <v>-28.17</v>
-          </cell>
-          <cell r="F113">
-            <v>52.16</v>
-          </cell>
-          <cell r="G113">
-            <v>1.42</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>113</v>
-          </cell>
-          <cell r="B114">
-            <v>71.040000000000006</v>
-          </cell>
-          <cell r="C114">
-            <v>18.100000000000001</v>
-          </cell>
-          <cell r="D114">
-            <v>-52.94</v>
-          </cell>
-          <cell r="F114">
-            <v>79.3</v>
-          </cell>
-          <cell r="G114">
-            <v>8.26</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>114</v>
-          </cell>
-          <cell r="B115">
-            <v>95.79</v>
-          </cell>
-          <cell r="C115">
-            <v>30.59</v>
-          </cell>
-          <cell r="D115">
-            <v>-65.209999999999994</v>
-          </cell>
-          <cell r="F115">
-            <v>103.73</v>
-          </cell>
-          <cell r="G115">
-            <v>7.93</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>115</v>
-          </cell>
-          <cell r="B116">
-            <v>78.790000000000006</v>
-          </cell>
-          <cell r="C116">
-            <v>51.17</v>
-          </cell>
-          <cell r="D116">
-            <v>-27.62</v>
-          </cell>
-          <cell r="F116">
-            <v>96.42</v>
-          </cell>
-          <cell r="G116">
-            <v>17.62</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>116</v>
-          </cell>
-          <cell r="B117">
-            <v>45.03</v>
-          </cell>
-          <cell r="C117">
-            <v>48.28</v>
-          </cell>
-          <cell r="D117">
-            <v>3.24</v>
-          </cell>
-          <cell r="F117">
-            <v>81.27</v>
-          </cell>
-          <cell r="G117">
-            <v>36.24</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>117</v>
-          </cell>
-          <cell r="B118">
-            <v>114.66</v>
-          </cell>
-          <cell r="C118">
-            <v>71.14</v>
-          </cell>
-          <cell r="D118">
-            <v>-43.53</v>
-          </cell>
-          <cell r="F118">
-            <v>96.75</v>
-          </cell>
-          <cell r="G118">
-            <v>-17.91</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>118</v>
-          </cell>
-          <cell r="B119">
-            <v>121.48</v>
-          </cell>
-          <cell r="C119">
-            <v>64.62</v>
-          </cell>
-          <cell r="D119">
-            <v>-56.86</v>
-          </cell>
-          <cell r="F119">
-            <v>114.41</v>
-          </cell>
-          <cell r="G119">
-            <v>-7.07</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>119</v>
-          </cell>
-          <cell r="B120">
-            <v>124.87</v>
-          </cell>
-          <cell r="C120">
-            <v>71.61</v>
-          </cell>
-          <cell r="D120">
-            <v>-53.26</v>
-          </cell>
-          <cell r="F120">
-            <v>92.98</v>
-          </cell>
-          <cell r="G120">
-            <v>-31.89</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>120</v>
-          </cell>
-          <cell r="B121">
-            <v>47.81</v>
-          </cell>
-          <cell r="C121">
-            <v>10.78</v>
-          </cell>
-          <cell r="D121">
-            <v>-37.03</v>
-          </cell>
-          <cell r="F121">
-            <v>47.75</v>
-          </cell>
-          <cell r="G121">
-            <v>-0.05</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>121</v>
-          </cell>
-          <cell r="B122">
-            <v>42.4</v>
-          </cell>
-          <cell r="C122">
-            <v>8.9600000000000009</v>
-          </cell>
-          <cell r="D122">
-            <v>-33.44</v>
-          </cell>
-          <cell r="F122">
-            <v>32.200000000000003</v>
-          </cell>
-          <cell r="G122">
-            <v>-10.199999999999999</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>122</v>
-          </cell>
-          <cell r="B123">
-            <v>22.89</v>
-          </cell>
-          <cell r="C123">
-            <v>5.28</v>
-          </cell>
-          <cell r="D123">
-            <v>-17.61</v>
-          </cell>
-          <cell r="F123">
-            <v>32.03</v>
-          </cell>
-          <cell r="G123">
-            <v>9.1300000000000008</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>123</v>
-          </cell>
-          <cell r="B124">
-            <v>45.24</v>
-          </cell>
-          <cell r="C124">
-            <v>14.72</v>
-          </cell>
-          <cell r="D124">
-            <v>-30.51</v>
-          </cell>
-          <cell r="F124">
-            <v>39.14</v>
-          </cell>
-          <cell r="G124">
-            <v>-6.1</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>124</v>
-          </cell>
-          <cell r="B125">
-            <v>19.16</v>
-          </cell>
-          <cell r="C125">
-            <v>8.57</v>
-          </cell>
-          <cell r="D125">
-            <v>-10.59</v>
-          </cell>
-          <cell r="F125">
-            <v>27.18</v>
-          </cell>
-          <cell r="G125">
-            <v>8.02</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>125</v>
-          </cell>
-          <cell r="B126">
-            <v>42.05</v>
-          </cell>
-          <cell r="C126">
-            <v>28.26</v>
-          </cell>
-          <cell r="D126">
-            <v>-13.79</v>
-          </cell>
-          <cell r="F126">
-            <v>41.13</v>
-          </cell>
-          <cell r="G126">
-            <v>-0.92</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>126</v>
-          </cell>
-          <cell r="B127">
-            <v>54.26</v>
-          </cell>
-          <cell r="C127">
-            <v>67.92</v>
-          </cell>
-          <cell r="D127">
-            <v>13.66</v>
-          </cell>
-          <cell r="F127">
-            <v>67.11</v>
-          </cell>
-          <cell r="G127">
-            <v>12.85</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>127</v>
-          </cell>
-          <cell r="B128">
-            <v>39.85</v>
-          </cell>
-          <cell r="C128">
-            <v>47.5</v>
-          </cell>
-          <cell r="D128">
-            <v>7.64</v>
-          </cell>
-          <cell r="F128">
-            <v>47.63</v>
-          </cell>
-          <cell r="G128">
-            <v>7.77</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>128</v>
-          </cell>
-          <cell r="B129">
-            <v>35.090000000000003</v>
-          </cell>
-          <cell r="C129">
-            <v>28.68</v>
-          </cell>
-          <cell r="D129">
-            <v>-6.41</v>
-          </cell>
-          <cell r="F129">
-            <v>33.17</v>
-          </cell>
-          <cell r="G129">
-            <v>-1.91</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>129</v>
-          </cell>
-          <cell r="B130">
-            <v>25.2</v>
-          </cell>
-          <cell r="C130">
-            <v>12.17</v>
-          </cell>
-          <cell r="D130">
-            <v>-13.04</v>
-          </cell>
-          <cell r="F130">
-            <v>18.100000000000001</v>
-          </cell>
-          <cell r="G130">
-            <v>-7.1</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>130</v>
-          </cell>
-          <cell r="B131">
-            <v>18.79</v>
-          </cell>
-          <cell r="C131">
-            <v>5.32</v>
-          </cell>
-          <cell r="D131">
-            <v>-13.47</v>
-          </cell>
-          <cell r="F131">
-            <v>19.84</v>
-          </cell>
-          <cell r="G131">
-            <v>1.06</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>131</v>
-          </cell>
-          <cell r="B132">
-            <v>55.55</v>
-          </cell>
-          <cell r="C132">
-            <v>11.37</v>
-          </cell>
-          <cell r="D132">
-            <v>-44.18</v>
-          </cell>
-          <cell r="F132">
-            <v>53.49</v>
-          </cell>
-          <cell r="G132">
-            <v>-2.06</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>132</v>
-          </cell>
-          <cell r="B133">
-            <v>20.11</v>
-          </cell>
-          <cell r="C133">
-            <v>4.22</v>
-          </cell>
-          <cell r="D133">
-            <v>-15.89</v>
-          </cell>
-          <cell r="F133">
-            <v>32.090000000000003</v>
-          </cell>
-          <cell r="G133">
-            <v>11.98</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>133</v>
-          </cell>
-          <cell r="B134">
-            <v>23.84</v>
-          </cell>
-          <cell r="C134">
-            <v>8.76</v>
-          </cell>
-          <cell r="D134">
-            <v>-15.08</v>
-          </cell>
-          <cell r="F134">
-            <v>24.8</v>
-          </cell>
-          <cell r="G134">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>134</v>
-          </cell>
-          <cell r="B135">
-            <v>45.75</v>
-          </cell>
-          <cell r="C135">
-            <v>16.57</v>
-          </cell>
-          <cell r="D135">
-            <v>-29.18</v>
-          </cell>
-          <cell r="F135">
-            <v>40.36</v>
-          </cell>
-          <cell r="G135">
-            <v>-5.38</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>135</v>
-          </cell>
-          <cell r="B136">
-            <v>121.95</v>
-          </cell>
-          <cell r="C136">
-            <v>59.29</v>
-          </cell>
-          <cell r="D136">
-            <v>-62.66</v>
-          </cell>
-          <cell r="F136">
-            <v>114.8</v>
-          </cell>
-          <cell r="G136">
-            <v>-7.15</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>136</v>
-          </cell>
-          <cell r="B137">
-            <v>48.54</v>
-          </cell>
-          <cell r="C137">
-            <v>7.54</v>
-          </cell>
-          <cell r="D137">
-            <v>-41</v>
-          </cell>
-          <cell r="F137">
-            <v>38</v>
-          </cell>
-          <cell r="G137">
-            <v>-10.54</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>137</v>
-          </cell>
-          <cell r="B138">
-            <v>11.66</v>
-          </cell>
-          <cell r="C138">
-            <v>2.74</v>
-          </cell>
-          <cell r="D138">
-            <v>-8.92</v>
-          </cell>
-          <cell r="F138">
-            <v>25.14</v>
-          </cell>
-          <cell r="G138">
-            <v>13.49</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>138</v>
-          </cell>
-          <cell r="B139">
-            <v>16.23</v>
-          </cell>
-          <cell r="C139">
-            <v>4.3499999999999996</v>
-          </cell>
-          <cell r="D139">
-            <v>-11.89</v>
-          </cell>
-          <cell r="F139">
-            <v>21.95</v>
-          </cell>
-          <cell r="G139">
-            <v>5.72</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>139</v>
-          </cell>
-          <cell r="B140">
-            <v>34.89</v>
-          </cell>
-          <cell r="C140">
-            <v>12.21</v>
-          </cell>
-          <cell r="D140">
-            <v>-22.68</v>
-          </cell>
-          <cell r="F140">
-            <v>34.9</v>
-          </cell>
-          <cell r="G140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>140</v>
-          </cell>
-          <cell r="B141">
-            <v>51.05</v>
-          </cell>
-          <cell r="C141">
-            <v>28.81</v>
-          </cell>
-          <cell r="D141">
-            <v>-22.23</v>
-          </cell>
-          <cell r="F141">
-            <v>72.849999999999994</v>
-          </cell>
-          <cell r="G141">
-            <v>21.8</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>141</v>
-          </cell>
-          <cell r="B142">
-            <v>91.73</v>
-          </cell>
-          <cell r="C142">
-            <v>49.42</v>
-          </cell>
-          <cell r="D142">
-            <v>-42.32</v>
-          </cell>
-          <cell r="F142">
-            <v>104.15</v>
-          </cell>
-          <cell r="G142">
-            <v>12.41</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>142</v>
-          </cell>
-          <cell r="B143">
-            <v>112.92</v>
-          </cell>
-          <cell r="C143">
-            <v>61.13</v>
-          </cell>
-          <cell r="D143">
-            <v>-51.79</v>
-          </cell>
-          <cell r="F143">
-            <v>127.98</v>
-          </cell>
-          <cell r="G143">
-            <v>15.06</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>143</v>
-          </cell>
-          <cell r="B144">
-            <v>100.03</v>
-          </cell>
-          <cell r="C144">
-            <v>50.07</v>
-          </cell>
-          <cell r="D144">
-            <v>-49.95</v>
-          </cell>
-          <cell r="F144">
-            <v>114.13</v>
-          </cell>
-          <cell r="G144">
-            <v>14.1</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>144</v>
-          </cell>
-          <cell r="B145">
-            <v>86.82</v>
-          </cell>
-          <cell r="C145">
-            <v>53.54</v>
-          </cell>
-          <cell r="D145">
-            <v>-33.28</v>
-          </cell>
-          <cell r="F145">
-            <v>104.1</v>
-          </cell>
-          <cell r="G145">
-            <v>17.28</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>145</v>
-          </cell>
-          <cell r="B146">
-            <v>91.78</v>
-          </cell>
-          <cell r="C146">
-            <v>73.73</v>
-          </cell>
-          <cell r="D146">
-            <v>-18.059999999999999</v>
-          </cell>
-          <cell r="F146">
-            <v>115.65</v>
-          </cell>
-          <cell r="G146">
-            <v>23.87</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>146</v>
-          </cell>
-          <cell r="B147">
-            <v>118.29</v>
-          </cell>
-          <cell r="C147">
-            <v>94.95</v>
-          </cell>
-          <cell r="D147">
-            <v>-23.34</v>
-          </cell>
-          <cell r="F147">
-            <v>135.32</v>
-          </cell>
-          <cell r="G147">
-            <v>17.03</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>147</v>
-          </cell>
-          <cell r="B148">
-            <v>62.23</v>
-          </cell>
-          <cell r="C148">
-            <v>84.96</v>
-          </cell>
-          <cell r="D148">
-            <v>22.73</v>
-          </cell>
-          <cell r="F148">
-            <v>91.12</v>
-          </cell>
-          <cell r="G148">
-            <v>28.89</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>148</v>
-          </cell>
-          <cell r="B149">
-            <v>57.48</v>
-          </cell>
-          <cell r="C149">
-            <v>43.16</v>
-          </cell>
-          <cell r="D149">
-            <v>-14.32</v>
-          </cell>
-          <cell r="F149">
-            <v>48.52</v>
-          </cell>
-          <cell r="G149">
-            <v>-8.9499999999999993</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>149</v>
-          </cell>
-          <cell r="B150">
-            <v>56.25</v>
-          </cell>
-          <cell r="C150">
-            <v>34.270000000000003</v>
-          </cell>
-          <cell r="D150">
-            <v>-21.98</v>
-          </cell>
-          <cell r="F150">
-            <v>77.19</v>
-          </cell>
-          <cell r="G150">
-            <v>20.94</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>150</v>
-          </cell>
-          <cell r="B151">
-            <v>87.73</v>
-          </cell>
-          <cell r="C151">
-            <v>39.549999999999997</v>
-          </cell>
-          <cell r="D151">
-            <v>-48.18</v>
-          </cell>
-          <cell r="F151">
-            <v>96.68</v>
-          </cell>
-          <cell r="G151">
-            <v>8.9499999999999993</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>151</v>
-          </cell>
-          <cell r="B152">
-            <v>33.07</v>
-          </cell>
-          <cell r="C152">
-            <v>10.54</v>
-          </cell>
-          <cell r="D152">
-            <v>-22.53</v>
-          </cell>
-          <cell r="F152">
-            <v>37.74</v>
-          </cell>
-          <cell r="G152">
-            <v>4.67</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>152</v>
-          </cell>
-          <cell r="B153">
-            <v>32.29</v>
-          </cell>
-          <cell r="C153">
-            <v>17.41</v>
-          </cell>
-          <cell r="D153">
-            <v>-14.89</v>
-          </cell>
-          <cell r="F153">
-            <v>39.549999999999997</v>
-          </cell>
-          <cell r="G153">
-            <v>7.26</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>153</v>
-          </cell>
-          <cell r="B154">
-            <v>49.9</v>
-          </cell>
-          <cell r="C154">
-            <v>37.39</v>
-          </cell>
-          <cell r="D154">
-            <v>-12.51</v>
-          </cell>
-          <cell r="F154">
-            <v>56.97</v>
-          </cell>
-          <cell r="G154">
-            <v>7.07</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>154</v>
-          </cell>
-          <cell r="B155">
-            <v>45.96</v>
-          </cell>
-          <cell r="C155">
-            <v>18.079999999999998</v>
-          </cell>
-          <cell r="D155">
-            <v>-27.88</v>
-          </cell>
-          <cell r="F155">
-            <v>40.24</v>
-          </cell>
-          <cell r="G155">
-            <v>-5.72</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>155</v>
-          </cell>
-          <cell r="B156">
-            <v>26.53</v>
-          </cell>
-          <cell r="C156">
-            <v>15.02</v>
-          </cell>
-          <cell r="D156">
-            <v>-11.51</v>
-          </cell>
-          <cell r="F156">
-            <v>45.63</v>
-          </cell>
-          <cell r="G156">
-            <v>19.100000000000001</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>156</v>
-          </cell>
-          <cell r="B157">
-            <v>13.47</v>
-          </cell>
-          <cell r="C157">
-            <v>6.89</v>
-          </cell>
-          <cell r="D157">
-            <v>-6.58</v>
-          </cell>
-          <cell r="F157">
-            <v>18.649999999999999</v>
-          </cell>
-          <cell r="G157">
-            <v>5.18</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>157</v>
-          </cell>
-          <cell r="B158">
-            <v>19.34</v>
-          </cell>
-          <cell r="C158">
-            <v>8.94</v>
-          </cell>
-          <cell r="D158">
-            <v>-10.41</v>
-          </cell>
-          <cell r="F158">
-            <v>25.48</v>
-          </cell>
-          <cell r="G158">
-            <v>6.14</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>158</v>
-          </cell>
-          <cell r="B159">
-            <v>48.5</v>
-          </cell>
-          <cell r="C159">
-            <v>38.76</v>
-          </cell>
-          <cell r="D159">
-            <v>-9.74</v>
-          </cell>
-          <cell r="F159">
-            <v>68.59</v>
-          </cell>
-          <cell r="G159">
-            <v>20.09</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>159</v>
-          </cell>
-          <cell r="B160">
-            <v>72.06</v>
-          </cell>
-          <cell r="C160">
-            <v>55.16</v>
-          </cell>
-          <cell r="D160">
-            <v>-16.899999999999999</v>
-          </cell>
-          <cell r="F160">
-            <v>72.31</v>
-          </cell>
-          <cell r="G160">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>160</v>
-          </cell>
-          <cell r="B161">
-            <v>19.71</v>
-          </cell>
-          <cell r="C161">
-            <v>18.27</v>
-          </cell>
-          <cell r="D161">
-            <v>-1.44</v>
-          </cell>
-          <cell r="F161">
-            <v>32.950000000000003</v>
-          </cell>
-          <cell r="G161">
-            <v>13.25</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>161</v>
-          </cell>
-          <cell r="B162">
-            <v>8.59</v>
-          </cell>
-          <cell r="C162">
-            <v>3.22</v>
-          </cell>
-          <cell r="D162">
-            <v>-5.38</v>
-          </cell>
-          <cell r="F162">
-            <v>10.43</v>
-          </cell>
-          <cell r="G162">
-            <v>1.84</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>162</v>
-          </cell>
-          <cell r="B163">
-            <v>10.99</v>
-          </cell>
-          <cell r="C163">
-            <v>9.08</v>
-          </cell>
-          <cell r="D163">
-            <v>-1.91</v>
-          </cell>
-          <cell r="F163">
-            <v>21.69</v>
-          </cell>
-          <cell r="G163">
-            <v>10.7</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>163</v>
-          </cell>
-          <cell r="B164">
-            <v>19.350000000000001</v>
-          </cell>
-          <cell r="C164">
-            <v>15.17</v>
-          </cell>
-          <cell r="D164">
-            <v>-4.18</v>
-          </cell>
-          <cell r="F164">
-            <v>32.18</v>
-          </cell>
-          <cell r="G164">
-            <v>12.82</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>164</v>
-          </cell>
-          <cell r="B165">
-            <v>80.459999999999994</v>
-          </cell>
-          <cell r="C165">
-            <v>35.36</v>
-          </cell>
-          <cell r="D165">
-            <v>-45.1</v>
-          </cell>
-          <cell r="F165">
-            <v>80.52</v>
-          </cell>
-          <cell r="G165">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>165</v>
-          </cell>
-          <cell r="B166">
-            <v>99.3</v>
-          </cell>
-          <cell r="C166">
-            <v>48.47</v>
-          </cell>
-          <cell r="D166">
-            <v>-50.83</v>
-          </cell>
-          <cell r="F166">
-            <v>92.41</v>
-          </cell>
-          <cell r="G166">
-            <v>-6.89</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>166</v>
-          </cell>
-          <cell r="B167">
-            <v>43.6</v>
-          </cell>
-          <cell r="C167">
-            <v>32.74</v>
-          </cell>
-          <cell r="D167">
-            <v>-10.86</v>
-          </cell>
-          <cell r="F167">
-            <v>68.930000000000007</v>
-          </cell>
-          <cell r="G167">
-            <v>25.33</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>167</v>
-          </cell>
-          <cell r="B168">
-            <v>20.69</v>
-          </cell>
-          <cell r="C168">
-            <v>5.45</v>
-          </cell>
-          <cell r="D168">
-            <v>-15.23</v>
-          </cell>
-          <cell r="F168">
-            <v>14.19</v>
-          </cell>
-          <cell r="G168">
-            <v>-6.5</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>168</v>
-          </cell>
-          <cell r="B169">
-            <v>13.61</v>
-          </cell>
-          <cell r="C169">
-            <v>8.92</v>
-          </cell>
-          <cell r="D169">
-            <v>-4.68</v>
-          </cell>
-          <cell r="F169">
-            <v>21.35</v>
-          </cell>
-          <cell r="G169">
-            <v>7.74</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>169</v>
-          </cell>
-          <cell r="B170">
-            <v>23.52</v>
-          </cell>
-          <cell r="C170">
-            <v>9.5500000000000007</v>
-          </cell>
-          <cell r="D170">
-            <v>-13.98</v>
-          </cell>
-          <cell r="F170">
-            <v>26.92</v>
-          </cell>
-          <cell r="G170">
-            <v>3.4</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>170</v>
-          </cell>
-          <cell r="B171">
-            <v>41</v>
-          </cell>
-          <cell r="C171">
-            <v>22.4</v>
-          </cell>
-          <cell r="D171">
-            <v>-18.600000000000001</v>
-          </cell>
-          <cell r="F171">
-            <v>56.04</v>
-          </cell>
-          <cell r="G171">
-            <v>15.04</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>171</v>
-          </cell>
-          <cell r="B172">
-            <v>89.78</v>
-          </cell>
-          <cell r="C172">
-            <v>38.29</v>
-          </cell>
-          <cell r="D172">
-            <v>-51.49</v>
-          </cell>
-          <cell r="F172">
-            <v>81.53</v>
-          </cell>
-          <cell r="G172">
-            <v>-8.24</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>172</v>
-          </cell>
-          <cell r="B173">
-            <v>172.78</v>
-          </cell>
-          <cell r="C173">
-            <v>55.24</v>
-          </cell>
-          <cell r="D173">
-            <v>-117.54</v>
-          </cell>
-          <cell r="F173">
-            <v>127.78</v>
-          </cell>
-          <cell r="G173">
-            <v>-45</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>173</v>
-          </cell>
-          <cell r="B174">
-            <v>119.63</v>
-          </cell>
-          <cell r="C174">
-            <v>40.700000000000003</v>
-          </cell>
-          <cell r="D174">
-            <v>-78.930000000000007</v>
-          </cell>
-          <cell r="F174">
-            <v>98.38</v>
-          </cell>
-          <cell r="G174">
-            <v>-21.25</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>174</v>
-          </cell>
-          <cell r="B175">
-            <v>122.92</v>
-          </cell>
-          <cell r="C175">
-            <v>48.91</v>
-          </cell>
-          <cell r="D175">
-            <v>-74.010000000000005</v>
-          </cell>
-          <cell r="F175">
-            <v>93.59</v>
-          </cell>
-          <cell r="G175">
-            <v>-29.33</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>175</v>
-          </cell>
-          <cell r="B176">
-            <v>103.06</v>
-          </cell>
-          <cell r="C176">
-            <v>49.44</v>
-          </cell>
-          <cell r="D176">
-            <v>-53.62</v>
-          </cell>
-          <cell r="F176">
-            <v>99.98</v>
-          </cell>
-          <cell r="G176">
-            <v>-3.08</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>176</v>
-          </cell>
-          <cell r="B177">
-            <v>84.97</v>
-          </cell>
-          <cell r="C177">
-            <v>56.73</v>
-          </cell>
-          <cell r="D177">
-            <v>-28.24</v>
-          </cell>
-          <cell r="F177">
-            <v>84.57</v>
-          </cell>
-          <cell r="G177">
-            <v>-0.41</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>177</v>
-          </cell>
-          <cell r="B178">
-            <v>142.38999999999999</v>
-          </cell>
-          <cell r="C178">
-            <v>55.02</v>
-          </cell>
-          <cell r="D178">
-            <v>-87.38</v>
-          </cell>
-          <cell r="F178">
-            <v>110.13</v>
-          </cell>
-          <cell r="G178">
-            <v>-32.270000000000003</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>178</v>
-          </cell>
-          <cell r="B179">
-            <v>108.07</v>
-          </cell>
-          <cell r="C179">
-            <v>59.42</v>
-          </cell>
-          <cell r="D179">
-            <v>-48.65</v>
-          </cell>
-          <cell r="F179">
-            <v>92.56</v>
-          </cell>
-          <cell r="G179">
-            <v>-15.51</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>179</v>
-          </cell>
-          <cell r="B180">
-            <v>14.16</v>
-          </cell>
-          <cell r="C180">
-            <v>6.41</v>
-          </cell>
-          <cell r="D180">
-            <v>-7.75</v>
-          </cell>
-          <cell r="F180">
-            <v>32.590000000000003</v>
-          </cell>
-          <cell r="G180">
-            <v>18.43</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>180</v>
-          </cell>
-          <cell r="B181">
-            <v>18.89</v>
-          </cell>
-          <cell r="C181">
-            <v>8.1199999999999992</v>
-          </cell>
-          <cell r="D181">
-            <v>-10.77</v>
-          </cell>
-          <cell r="F181">
-            <v>17.53</v>
-          </cell>
-          <cell r="G181">
-            <v>-1.36</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>181</v>
-          </cell>
-          <cell r="B182">
-            <v>7.9</v>
-          </cell>
-          <cell r="C182">
-            <v>4.5599999999999996</v>
-          </cell>
-          <cell r="D182">
-            <v>-3.34</v>
-          </cell>
-          <cell r="F182">
-            <v>13.65</v>
-          </cell>
-          <cell r="G182">
-            <v>5.76</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>182</v>
-          </cell>
-          <cell r="B183">
-            <v>22.64</v>
-          </cell>
-          <cell r="C183">
-            <v>9.52</v>
-          </cell>
-          <cell r="D183">
-            <v>-13.12</v>
-          </cell>
-          <cell r="F183">
-            <v>28.78</v>
-          </cell>
-          <cell r="G183">
-            <v>6.14</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>183</v>
-          </cell>
-          <cell r="B184">
-            <v>32.229999999999997</v>
-          </cell>
-          <cell r="C184">
-            <v>28.64</v>
-          </cell>
-          <cell r="D184">
-            <v>-3.59</v>
-          </cell>
-          <cell r="F184">
-            <v>42.08</v>
-          </cell>
-          <cell r="G184">
-            <v>9.85</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>184</v>
-          </cell>
-          <cell r="B185">
-            <v>58.88</v>
-          </cell>
-          <cell r="C185">
-            <v>47.21</v>
-          </cell>
-          <cell r="D185">
-            <v>-11.67</v>
-          </cell>
-          <cell r="F185">
-            <v>68.900000000000006</v>
-          </cell>
-          <cell r="G185">
-            <v>10.02</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>185</v>
-          </cell>
-          <cell r="B186">
-            <v>66.98</v>
-          </cell>
-          <cell r="C186">
-            <v>53.24</v>
-          </cell>
-          <cell r="D186">
-            <v>-13.74</v>
-          </cell>
-          <cell r="F186">
-            <v>81.61</v>
-          </cell>
-          <cell r="G186">
-            <v>14.63</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>186</v>
-          </cell>
-          <cell r="B187">
-            <v>66.239999999999995</v>
-          </cell>
-          <cell r="C187">
-            <v>64.650000000000006</v>
-          </cell>
-          <cell r="D187">
-            <v>-1.59</v>
-          </cell>
-          <cell r="F187">
-            <v>86.73</v>
-          </cell>
-          <cell r="G187">
-            <v>20.49</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>187</v>
-          </cell>
-          <cell r="B188">
-            <v>119.31</v>
-          </cell>
-          <cell r="C188">
-            <v>55.83</v>
-          </cell>
-          <cell r="D188">
-            <v>-63.48</v>
-          </cell>
-          <cell r="F188">
-            <v>97.1</v>
-          </cell>
-          <cell r="G188">
-            <v>-22.2</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>188</v>
-          </cell>
-          <cell r="B189">
-            <v>69.09</v>
-          </cell>
-          <cell r="C189">
-            <v>39.97</v>
-          </cell>
-          <cell r="D189">
-            <v>-29.12</v>
-          </cell>
-          <cell r="F189">
-            <v>94.54</v>
-          </cell>
-          <cell r="G189">
-            <v>25.45</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>189</v>
-          </cell>
-          <cell r="B190">
-            <v>47.31</v>
-          </cell>
-          <cell r="C190">
-            <v>48.8</v>
-          </cell>
-          <cell r="D190">
-            <v>1.49</v>
-          </cell>
-          <cell r="F190">
-            <v>88.87</v>
-          </cell>
-          <cell r="G190">
-            <v>41.56</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>190</v>
-          </cell>
-          <cell r="B191">
-            <v>97.61</v>
-          </cell>
-          <cell r="C191">
-            <v>80.06</v>
-          </cell>
-          <cell r="D191">
-            <v>-17.54</v>
-          </cell>
-          <cell r="F191">
-            <v>110.06</v>
-          </cell>
-          <cell r="G191">
-            <v>12.46</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>191</v>
-          </cell>
-          <cell r="B192">
-            <v>104.35</v>
-          </cell>
-          <cell r="C192">
-            <v>51.05</v>
-          </cell>
-          <cell r="D192">
-            <v>-53.3</v>
-          </cell>
-          <cell r="F192">
-            <v>91.38</v>
-          </cell>
-          <cell r="G192">
-            <v>-12.97</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>192</v>
-          </cell>
-          <cell r="B193">
-            <v>50.52</v>
-          </cell>
-          <cell r="C193">
-            <v>16.84</v>
-          </cell>
-          <cell r="D193">
-            <v>-33.68</v>
-          </cell>
-          <cell r="F193">
-            <v>64.91</v>
-          </cell>
-          <cell r="G193">
-            <v>14.39</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>193</v>
-          </cell>
-          <cell r="B194">
-            <v>36.409999999999997</v>
-          </cell>
-          <cell r="C194">
-            <v>32.36</v>
-          </cell>
-          <cell r="D194">
-            <v>-4.05</v>
-          </cell>
-          <cell r="F194">
-            <v>54.46</v>
-          </cell>
-          <cell r="G194">
-            <v>18.04</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>194</v>
-          </cell>
-          <cell r="B195">
-            <v>37.61</v>
-          </cell>
-          <cell r="C195">
-            <v>35.51</v>
-          </cell>
-          <cell r="D195">
-            <v>-2.11</v>
-          </cell>
-          <cell r="F195">
-            <v>47.56</v>
-          </cell>
-          <cell r="G195">
-            <v>9.94</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>195</v>
-          </cell>
-          <cell r="B196">
-            <v>34.97</v>
-          </cell>
-          <cell r="C196">
-            <v>18.07</v>
-          </cell>
-          <cell r="D196">
-            <v>-16.899999999999999</v>
-          </cell>
-          <cell r="F196">
-            <v>36.92</v>
-          </cell>
-          <cell r="G196">
-            <v>1.95</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>196</v>
-          </cell>
-          <cell r="B197">
-            <v>36.01</v>
-          </cell>
-          <cell r="C197">
-            <v>24.46</v>
-          </cell>
-          <cell r="D197">
-            <v>-11.55</v>
-          </cell>
-          <cell r="F197">
-            <v>45.61</v>
-          </cell>
-          <cell r="G197">
-            <v>9.6</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>197</v>
-          </cell>
-          <cell r="B198">
-            <v>44.65</v>
-          </cell>
-          <cell r="C198">
-            <v>34.85</v>
-          </cell>
-          <cell r="D198">
-            <v>-9.8000000000000007</v>
-          </cell>
-          <cell r="F198">
-            <v>58.21</v>
-          </cell>
-          <cell r="G198">
-            <v>13.55</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>198</v>
-          </cell>
-          <cell r="B199">
-            <v>61.07</v>
-          </cell>
-          <cell r="C199">
-            <v>28.09</v>
-          </cell>
-          <cell r="D199">
-            <v>-32.99</v>
-          </cell>
-          <cell r="F199">
-            <v>53.19</v>
-          </cell>
-          <cell r="G199">
-            <v>-7.88</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>199</v>
-          </cell>
-          <cell r="B200">
-            <v>75.819999999999993</v>
-          </cell>
-          <cell r="C200">
-            <v>26.73</v>
-          </cell>
-          <cell r="D200">
-            <v>-49.09</v>
-          </cell>
-          <cell r="F200">
-            <v>60.96</v>
-          </cell>
-          <cell r="G200">
-            <v>-14.86</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>200</v>
-          </cell>
-          <cell r="B201">
-            <v>133.47999999999999</v>
-          </cell>
-          <cell r="C201">
-            <v>44.18</v>
-          </cell>
-          <cell r="D201">
-            <v>-89.3</v>
-          </cell>
-          <cell r="F201">
-            <v>101.51</v>
-          </cell>
-          <cell r="G201">
-            <v>-31.97</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>201</v>
-          </cell>
-          <cell r="B202">
-            <v>58.67</v>
-          </cell>
-          <cell r="C202">
-            <v>34.14</v>
-          </cell>
-          <cell r="D202">
-            <v>-24.53</v>
-          </cell>
-          <cell r="F202">
-            <v>81.02</v>
-          </cell>
-          <cell r="G202">
-            <v>22.35</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>202</v>
-          </cell>
-          <cell r="B203">
-            <v>38.89</v>
-          </cell>
-          <cell r="C203">
-            <v>35.22</v>
-          </cell>
-          <cell r="D203">
-            <v>-3.67</v>
-          </cell>
-          <cell r="F203">
-            <v>58.55</v>
-          </cell>
-          <cell r="G203">
-            <v>19.66</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>203</v>
-          </cell>
-          <cell r="B204">
-            <v>46.12</v>
-          </cell>
-          <cell r="C204">
-            <v>18.149999999999999</v>
-          </cell>
-          <cell r="D204">
-            <v>-27.97</v>
-          </cell>
-          <cell r="F204">
-            <v>36.53</v>
-          </cell>
-          <cell r="G204">
-            <v>-9.59</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>204</v>
-          </cell>
-          <cell r="B205">
-            <v>78.12</v>
-          </cell>
-          <cell r="C205">
-            <v>31.81</v>
-          </cell>
-          <cell r="D205">
-            <v>-46.32</v>
-          </cell>
-          <cell r="F205">
-            <v>84.86</v>
-          </cell>
-          <cell r="G205">
-            <v>6.74</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>205</v>
-          </cell>
-          <cell r="B206">
-            <v>91.4</v>
-          </cell>
-          <cell r="C206">
-            <v>25.99</v>
-          </cell>
-          <cell r="D206">
-            <v>-65.41</v>
-          </cell>
-          <cell r="F206">
-            <v>90.69</v>
-          </cell>
-          <cell r="G206">
-            <v>-0.71</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>206</v>
-          </cell>
-          <cell r="B207">
-            <v>77.42</v>
-          </cell>
-          <cell r="C207">
-            <v>40.71</v>
-          </cell>
-          <cell r="D207">
-            <v>-36.700000000000003</v>
-          </cell>
-          <cell r="F207">
-            <v>86.57</v>
-          </cell>
-          <cell r="G207">
-            <v>9.15</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>207</v>
-          </cell>
-          <cell r="B208">
-            <v>43.04</v>
-          </cell>
-          <cell r="C208">
-            <v>47.09</v>
-          </cell>
-          <cell r="D208">
-            <v>4.0599999999999996</v>
-          </cell>
-          <cell r="F208">
-            <v>61.69</v>
-          </cell>
-          <cell r="G208">
-            <v>18.66</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>208</v>
-          </cell>
-          <cell r="B209">
-            <v>80.010000000000005</v>
-          </cell>
-          <cell r="C209">
-            <v>57.85</v>
-          </cell>
-          <cell r="D209">
-            <v>-22.17</v>
-          </cell>
-          <cell r="F209">
-            <v>84.99</v>
-          </cell>
-          <cell r="G209">
-            <v>4.9800000000000004</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>209</v>
-          </cell>
-          <cell r="B210">
-            <v>37.82</v>
-          </cell>
-          <cell r="C210">
-            <v>20.65</v>
-          </cell>
-          <cell r="D210">
-            <v>-17.170000000000002</v>
-          </cell>
-          <cell r="F210">
-            <v>46.74</v>
-          </cell>
-          <cell r="G210">
-            <v>8.92</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>210</v>
-          </cell>
-          <cell r="B211">
-            <v>24.25</v>
-          </cell>
-          <cell r="C211">
-            <v>47.37</v>
-          </cell>
-          <cell r="D211">
-            <v>23.13</v>
-          </cell>
-          <cell r="F211">
-            <v>59.68</v>
-          </cell>
-          <cell r="G211">
-            <v>35.44</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>211</v>
-          </cell>
-          <cell r="B212">
-            <v>61.45</v>
-          </cell>
-          <cell r="C212">
-            <v>64.53</v>
-          </cell>
-          <cell r="D212">
-            <v>3.08</v>
-          </cell>
-          <cell r="F212">
-            <v>48.24</v>
-          </cell>
-          <cell r="G212">
-            <v>-13.22</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>212</v>
-          </cell>
-          <cell r="B213">
-            <v>61.89</v>
-          </cell>
-          <cell r="C213">
-            <v>19.48</v>
-          </cell>
-          <cell r="D213">
-            <v>-42.41</v>
-          </cell>
-          <cell r="F213">
-            <v>43.5</v>
-          </cell>
-          <cell r="G213">
-            <v>-18.39</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>213</v>
-          </cell>
-          <cell r="B214">
-            <v>58.94</v>
-          </cell>
-          <cell r="C214">
-            <v>14.07</v>
-          </cell>
-          <cell r="D214">
-            <v>-44.87</v>
-          </cell>
-          <cell r="F214">
-            <v>39.229999999999997</v>
-          </cell>
-          <cell r="G214">
-            <v>-19.71</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>214</v>
-          </cell>
-          <cell r="B215">
-            <v>17.72</v>
-          </cell>
-          <cell r="C215">
-            <v>16.75</v>
-          </cell>
-          <cell r="D215">
-            <v>-0.98</v>
-          </cell>
-          <cell r="F215">
-            <v>46.27</v>
-          </cell>
-          <cell r="G215">
-            <v>28.55</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>215</v>
-          </cell>
-          <cell r="B216">
-            <v>60.02</v>
-          </cell>
-          <cell r="C216">
-            <v>30.54</v>
-          </cell>
-          <cell r="D216">
-            <v>-29.47</v>
-          </cell>
-          <cell r="F216">
-            <v>65.650000000000006</v>
-          </cell>
-          <cell r="G216">
-            <v>5.63</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>216</v>
-          </cell>
-          <cell r="B217">
-            <v>52.72</v>
-          </cell>
-          <cell r="C217">
-            <v>37.42</v>
-          </cell>
-          <cell r="D217">
-            <v>-15.3</v>
-          </cell>
-          <cell r="F217">
-            <v>58.47</v>
-          </cell>
-          <cell r="G217">
-            <v>5.75</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>217</v>
-          </cell>
-          <cell r="B218">
-            <v>88.55</v>
-          </cell>
-          <cell r="C218">
-            <v>31.48</v>
-          </cell>
-          <cell r="D218">
-            <v>-57.07</v>
-          </cell>
-          <cell r="F218">
-            <v>59.39</v>
-          </cell>
-          <cell r="G218">
-            <v>-29.16</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>218</v>
-          </cell>
-          <cell r="B219">
-            <v>35.14</v>
-          </cell>
-          <cell r="C219">
-            <v>21.52</v>
-          </cell>
-          <cell r="D219">
-            <v>-13.62</v>
-          </cell>
-          <cell r="F219">
-            <v>63.87</v>
-          </cell>
-          <cell r="G219">
-            <v>28.73</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>219</v>
-          </cell>
-          <cell r="B220">
-            <v>54.66</v>
-          </cell>
-          <cell r="C220">
-            <v>19.079999999999998</v>
-          </cell>
-          <cell r="D220">
-            <v>-35.590000000000003</v>
-          </cell>
-          <cell r="F220">
-            <v>74.14</v>
-          </cell>
-          <cell r="G220">
-            <v>19.47</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>220</v>
-          </cell>
-          <cell r="B221">
-            <v>44.8</v>
-          </cell>
-          <cell r="C221">
-            <v>14.2</v>
-          </cell>
-          <cell r="D221">
-            <v>-30.6</v>
-          </cell>
-          <cell r="F221">
-            <v>61.96</v>
-          </cell>
-          <cell r="G221">
-            <v>17.16</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>221</v>
-          </cell>
-          <cell r="B222">
-            <v>86.7</v>
-          </cell>
-          <cell r="C222">
-            <v>27.86</v>
-          </cell>
-          <cell r="D222">
-            <v>-58.84</v>
-          </cell>
-          <cell r="F222">
-            <v>75.45</v>
-          </cell>
-          <cell r="G222">
-            <v>-11.25</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>222</v>
-          </cell>
-          <cell r="B223">
-            <v>76.98</v>
-          </cell>
-          <cell r="C223">
-            <v>23.6</v>
-          </cell>
-          <cell r="D223">
-            <v>-53.38</v>
-          </cell>
-          <cell r="F223">
-            <v>100.79</v>
-          </cell>
-          <cell r="G223">
-            <v>23.8</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>223</v>
-          </cell>
-          <cell r="B224">
-            <v>117.38</v>
-          </cell>
-          <cell r="C224">
-            <v>32.86</v>
-          </cell>
-          <cell r="D224">
-            <v>-84.51</v>
-          </cell>
-          <cell r="F224">
-            <v>114.83</v>
-          </cell>
-          <cell r="G224">
-            <v>-2.54</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>224</v>
-          </cell>
-          <cell r="B225">
-            <v>57.8</v>
-          </cell>
-          <cell r="C225">
-            <v>14.35</v>
-          </cell>
-          <cell r="D225">
-            <v>-43.45</v>
-          </cell>
-          <cell r="F225">
-            <v>71.97</v>
-          </cell>
-          <cell r="G225">
-            <v>14.18</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>225</v>
-          </cell>
-          <cell r="B226">
-            <v>22.46</v>
-          </cell>
-          <cell r="C226">
-            <v>8.06</v>
-          </cell>
-          <cell r="D226">
-            <v>-14.4</v>
-          </cell>
-          <cell r="F226">
-            <v>40.770000000000003</v>
-          </cell>
-          <cell r="G226">
-            <v>18.309999999999999</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>226</v>
-          </cell>
-          <cell r="B227">
-            <v>35.15</v>
-          </cell>
-          <cell r="C227">
-            <v>16.920000000000002</v>
-          </cell>
-          <cell r="D227">
-            <v>-18.22</v>
-          </cell>
-          <cell r="F227">
-            <v>66.989999999999995</v>
-          </cell>
-          <cell r="G227">
-            <v>31.84</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>227</v>
-          </cell>
-          <cell r="B228">
-            <v>77.819999999999993</v>
-          </cell>
-          <cell r="C228">
-            <v>31.94</v>
-          </cell>
-          <cell r="D228">
-            <v>-45.88</v>
-          </cell>
-          <cell r="F228">
-            <v>83.42</v>
-          </cell>
-          <cell r="G228">
-            <v>5.59</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>228</v>
-          </cell>
-          <cell r="B229">
-            <v>51.97</v>
-          </cell>
-          <cell r="C229">
-            <v>53.71</v>
-          </cell>
-          <cell r="D229">
-            <v>1.73</v>
-          </cell>
-          <cell r="F229">
-            <v>70.72</v>
-          </cell>
-          <cell r="G229">
-            <v>18.739999999999998</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>229</v>
-          </cell>
-          <cell r="B230">
-            <v>47.65</v>
-          </cell>
-          <cell r="C230">
-            <v>54.02</v>
-          </cell>
-          <cell r="D230">
-            <v>6.37</v>
-          </cell>
-          <cell r="F230">
-            <v>58.14</v>
-          </cell>
-          <cell r="G230">
-            <v>10.48</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>230</v>
-          </cell>
-          <cell r="B231">
-            <v>38.03</v>
-          </cell>
-          <cell r="C231">
-            <v>30.78</v>
-          </cell>
-          <cell r="D231">
-            <v>-7.24</v>
-          </cell>
-          <cell r="F231">
-            <v>39.94</v>
-          </cell>
-          <cell r="G231">
-            <v>1.91</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>231</v>
-          </cell>
-          <cell r="B232">
-            <v>13.48</v>
-          </cell>
-          <cell r="C232">
-            <v>8.76</v>
-          </cell>
-          <cell r="D232">
-            <v>-4.72</v>
-          </cell>
-          <cell r="F232">
-            <v>22.76</v>
-          </cell>
-          <cell r="G232">
-            <v>9.2799999999999994</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>232</v>
-          </cell>
-          <cell r="B233">
-            <v>14.54</v>
-          </cell>
-          <cell r="C233">
-            <v>13.05</v>
-          </cell>
-          <cell r="D233">
-            <v>-1.49</v>
-          </cell>
-          <cell r="F233">
-            <v>21.69</v>
-          </cell>
-          <cell r="G233">
-            <v>7.15</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>233</v>
-          </cell>
-          <cell r="B234">
-            <v>23.78</v>
-          </cell>
-          <cell r="C234">
-            <v>28.43</v>
-          </cell>
-          <cell r="D234">
-            <v>4.6500000000000004</v>
-          </cell>
-          <cell r="F234">
-            <v>31.26</v>
-          </cell>
-          <cell r="G234">
-            <v>7.48</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>234</v>
-          </cell>
-          <cell r="B235">
-            <v>12.62</v>
-          </cell>
-          <cell r="C235">
-            <v>10.44</v>
-          </cell>
-          <cell r="D235">
-            <v>-2.19</v>
-          </cell>
-          <cell r="F235">
-            <v>15.13</v>
-          </cell>
-          <cell r="G235">
-            <v>2.5099999999999998</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>235</v>
-          </cell>
-          <cell r="B236">
-            <v>14.05</v>
-          </cell>
-          <cell r="C236">
-            <v>9.41</v>
-          </cell>
-          <cell r="D236">
-            <v>-4.63</v>
-          </cell>
-          <cell r="F236">
-            <v>14.41</v>
-          </cell>
-          <cell r="G236">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>236</v>
-          </cell>
-          <cell r="B237">
-            <v>11.48</v>
-          </cell>
-          <cell r="C237">
-            <v>9.4499999999999993</v>
-          </cell>
-          <cell r="D237">
-            <v>-2.0299999999999998</v>
-          </cell>
-          <cell r="F237">
-            <v>17</v>
-          </cell>
-          <cell r="G237">
-            <v>5.51</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>237</v>
-          </cell>
-          <cell r="B238">
-            <v>12.35</v>
-          </cell>
-          <cell r="C238">
-            <v>11.32</v>
-          </cell>
-          <cell r="D238">
-            <v>-1.02</v>
-          </cell>
-          <cell r="F238">
-            <v>22.63</v>
-          </cell>
-          <cell r="G238">
-            <v>10.29</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>238</v>
-          </cell>
-          <cell r="B239">
-            <v>16.62</v>
-          </cell>
-          <cell r="C239">
-            <v>16.41</v>
-          </cell>
-          <cell r="D239">
-            <v>-0.21</v>
-          </cell>
-          <cell r="F239">
-            <v>28.16</v>
-          </cell>
-          <cell r="G239">
-            <v>11.54</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>239</v>
-          </cell>
-          <cell r="B240">
-            <v>25.36</v>
-          </cell>
-          <cell r="C240">
-            <v>26.28</v>
-          </cell>
-          <cell r="D240">
-            <v>0.92</v>
-          </cell>
-          <cell r="F240">
-            <v>37.58</v>
-          </cell>
-          <cell r="G240">
-            <v>12.22</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>240</v>
-          </cell>
-          <cell r="B241">
-            <v>25.94</v>
-          </cell>
-          <cell r="C241">
-            <v>33.99</v>
-          </cell>
-          <cell r="D241">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="F241">
-            <v>43.33</v>
-          </cell>
-          <cell r="G241">
-            <v>17.399999999999999</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>241</v>
-          </cell>
-          <cell r="B242">
-            <v>24.2</v>
-          </cell>
-          <cell r="C242">
-            <v>22.47</v>
-          </cell>
-          <cell r="D242">
-            <v>-1.73</v>
-          </cell>
-          <cell r="F242">
-            <v>33.200000000000003</v>
-          </cell>
-          <cell r="G242">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>242</v>
-          </cell>
-          <cell r="B243">
-            <v>9.33</v>
-          </cell>
-          <cell r="C243">
-            <v>9.6</v>
-          </cell>
-          <cell r="D243">
-            <v>0.27</v>
-          </cell>
-          <cell r="F243">
-            <v>15.1</v>
-          </cell>
-          <cell r="G243">
-            <v>5.77</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>243</v>
-          </cell>
-          <cell r="B244">
-            <v>8.25</v>
-          </cell>
-          <cell r="C244">
-            <v>7.34</v>
-          </cell>
-          <cell r="D244">
-            <v>-0.91</v>
-          </cell>
-          <cell r="F244">
-            <v>13.11</v>
-          </cell>
-          <cell r="G244">
-            <v>4.8600000000000003</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>244</v>
-          </cell>
-          <cell r="B245">
-            <v>13.05</v>
-          </cell>
-          <cell r="C245">
-            <v>20.67</v>
-          </cell>
-          <cell r="D245">
-            <v>7.62</v>
-          </cell>
-          <cell r="F245">
-            <v>29.26</v>
-          </cell>
-          <cell r="G245">
-            <v>16.21</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>245</v>
-          </cell>
-          <cell r="B246">
-            <v>38.56</v>
-          </cell>
-          <cell r="C246">
-            <v>42.29</v>
-          </cell>
-          <cell r="D246">
-            <v>3.73</v>
-          </cell>
-          <cell r="F246">
-            <v>43.62</v>
-          </cell>
-          <cell r="G246">
-            <v>5.0599999999999996</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>246</v>
-          </cell>
-          <cell r="B247">
-            <v>15.6</v>
-          </cell>
-          <cell r="C247">
-            <v>19.28</v>
-          </cell>
-          <cell r="D247">
-            <v>3.69</v>
-          </cell>
-          <cell r="F247">
-            <v>24.61</v>
-          </cell>
-          <cell r="G247">
-            <v>9.02</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>247</v>
-          </cell>
-          <cell r="B248">
-            <v>15.51</v>
-          </cell>
-          <cell r="C248">
-            <v>19.16</v>
-          </cell>
-          <cell r="D248">
-            <v>3.65</v>
-          </cell>
-          <cell r="F248">
-            <v>25.82</v>
-          </cell>
-          <cell r="G248">
-            <v>10.31</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>248</v>
-          </cell>
-          <cell r="B249">
-            <v>22.98</v>
-          </cell>
-          <cell r="C249">
-            <v>27.05</v>
-          </cell>
-          <cell r="D249">
-            <v>4.07</v>
-          </cell>
-          <cell r="F249">
-            <v>33.93</v>
-          </cell>
-          <cell r="G249">
-            <v>10.95</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>249</v>
-          </cell>
-          <cell r="B250">
-            <v>46.24</v>
-          </cell>
-          <cell r="C250">
-            <v>49.42</v>
-          </cell>
-          <cell r="D250">
-            <v>3.18</v>
-          </cell>
-          <cell r="F250">
-            <v>56.15</v>
-          </cell>
-          <cell r="G250">
-            <v>9.91</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>250</v>
-          </cell>
-          <cell r="B251">
-            <v>31.95</v>
-          </cell>
-          <cell r="C251">
-            <v>41.16</v>
-          </cell>
-          <cell r="D251">
-            <v>9.2200000000000006</v>
-          </cell>
-          <cell r="F251">
-            <v>49.53</v>
-          </cell>
-          <cell r="G251">
-            <v>17.59</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>251</v>
-          </cell>
-          <cell r="B252">
-            <v>7.57</v>
-          </cell>
-          <cell r="C252">
-            <v>13.06</v>
-          </cell>
-          <cell r="D252">
-            <v>5.5</v>
-          </cell>
-          <cell r="F252">
-            <v>5.49</v>
-          </cell>
-          <cell r="G252">
-            <v>-2.08</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>252</v>
-          </cell>
-          <cell r="B253">
-            <v>7.47</v>
-          </cell>
-          <cell r="C253">
-            <v>5.31</v>
-          </cell>
-          <cell r="D253">
-            <v>-2.17</v>
-          </cell>
-          <cell r="F253">
-            <v>9.27</v>
-          </cell>
-          <cell r="G253">
-            <v>1.8</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>253</v>
-          </cell>
-          <cell r="B254">
-            <v>7.42</v>
-          </cell>
-          <cell r="C254">
-            <v>3.85</v>
-          </cell>
-          <cell r="D254">
-            <v>-3.57</v>
-          </cell>
-          <cell r="F254">
-            <v>10.63</v>
-          </cell>
-          <cell r="G254">
-            <v>3.21</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>254</v>
-          </cell>
-          <cell r="B255">
-            <v>17.54</v>
-          </cell>
-          <cell r="C255">
-            <v>9.41</v>
-          </cell>
-          <cell r="D255">
-            <v>-8.1300000000000008</v>
-          </cell>
-          <cell r="F255">
-            <v>19.82</v>
-          </cell>
-          <cell r="G255">
-            <v>2.2799999999999998</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>255</v>
-          </cell>
-          <cell r="B256">
-            <v>56.76</v>
-          </cell>
-          <cell r="C256">
-            <v>40.06</v>
-          </cell>
-          <cell r="D256">
-            <v>-16.690000000000001</v>
-          </cell>
-          <cell r="F256">
-            <v>56.04</v>
-          </cell>
-          <cell r="G256">
-            <v>-0.72</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>256</v>
-          </cell>
-          <cell r="B257">
-            <v>99.06</v>
-          </cell>
-          <cell r="C257">
-            <v>80.56</v>
-          </cell>
-          <cell r="D257">
-            <v>-18.5</v>
-          </cell>
-          <cell r="F257">
-            <v>108.35</v>
-          </cell>
-          <cell r="G257">
-            <v>9.2899999999999991</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>257</v>
-          </cell>
-          <cell r="B258">
-            <v>116.86</v>
-          </cell>
-          <cell r="C258">
-            <v>77.41</v>
-          </cell>
-          <cell r="D258">
-            <v>-39.46</v>
-          </cell>
-          <cell r="F258">
-            <v>100.84</v>
-          </cell>
-          <cell r="G258">
-            <v>-16.02</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>258</v>
-          </cell>
-          <cell r="B259">
-            <v>136.04</v>
-          </cell>
-          <cell r="C259">
-            <v>80.55</v>
-          </cell>
-          <cell r="D259">
-            <v>-55.49</v>
-          </cell>
-          <cell r="F259">
-            <v>110.44</v>
-          </cell>
-          <cell r="G259">
-            <v>-25.61</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>259</v>
-          </cell>
-          <cell r="B260">
-            <v>71.89</v>
-          </cell>
-          <cell r="C260">
-            <v>44.66</v>
-          </cell>
-          <cell r="D260">
-            <v>-27.22</v>
-          </cell>
-          <cell r="F260">
-            <v>72.19</v>
-          </cell>
-          <cell r="G260">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>260</v>
-          </cell>
-          <cell r="B261">
-            <v>18.62</v>
-          </cell>
-          <cell r="C261">
-            <v>13.56</v>
-          </cell>
-          <cell r="D261">
-            <v>-5.0599999999999996</v>
-          </cell>
-          <cell r="F261">
-            <v>30.08</v>
-          </cell>
-          <cell r="G261">
-            <v>11.46</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>261</v>
-          </cell>
-          <cell r="B262">
-            <v>82.89</v>
-          </cell>
-          <cell r="C262">
-            <v>46.46</v>
-          </cell>
-          <cell r="D262">
-            <v>-36.43</v>
-          </cell>
-          <cell r="F262">
-            <v>71.27</v>
-          </cell>
-          <cell r="G262">
-            <v>-11.63</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>262</v>
-          </cell>
-          <cell r="B263">
-            <v>95.81</v>
-          </cell>
-          <cell r="C263">
-            <v>57.92</v>
-          </cell>
-          <cell r="D263">
-            <v>-37.89</v>
-          </cell>
-          <cell r="F263">
-            <v>99.79</v>
-          </cell>
-          <cell r="G263">
-            <v>3.98</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>263</v>
-          </cell>
-          <cell r="B264">
-            <v>127.25</v>
-          </cell>
-          <cell r="C264">
-            <v>62.49</v>
-          </cell>
-          <cell r="D264">
-            <v>-64.760000000000005</v>
-          </cell>
-          <cell r="F264">
-            <v>83.43</v>
-          </cell>
-          <cell r="G264">
-            <v>-43.82</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>264</v>
-          </cell>
-          <cell r="B265">
-            <v>29.62</v>
-          </cell>
-          <cell r="C265">
-            <v>29.86</v>
-          </cell>
-          <cell r="D265">
-            <v>0.24</v>
-          </cell>
-          <cell r="F265">
-            <v>63.79</v>
-          </cell>
-          <cell r="G265">
-            <v>34.17</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>265</v>
-          </cell>
-          <cell r="B266">
-            <v>88.46</v>
-          </cell>
-          <cell r="C266">
-            <v>49.16</v>
-          </cell>
-          <cell r="D266">
-            <v>-39.299999999999997</v>
-          </cell>
-          <cell r="F266">
-            <v>58.93</v>
-          </cell>
-          <cell r="G266">
-            <v>-29.53</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>266</v>
-          </cell>
-          <cell r="B267">
-            <v>18.77</v>
-          </cell>
-          <cell r="C267">
-            <v>13.78</v>
-          </cell>
-          <cell r="D267">
-            <v>-4.9800000000000004</v>
-          </cell>
-          <cell r="F267">
-            <v>35.6</v>
-          </cell>
-          <cell r="G267">
-            <v>16.829999999999998</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>267</v>
-          </cell>
-          <cell r="B268">
-            <v>30.44</v>
-          </cell>
-          <cell r="C268">
-            <v>20.6</v>
-          </cell>
-          <cell r="D268">
-            <v>-9.84</v>
-          </cell>
-          <cell r="F268">
-            <v>33.92</v>
-          </cell>
-          <cell r="G268">
-            <v>3.48</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>268</v>
-          </cell>
-          <cell r="B269">
-            <v>48.18</v>
-          </cell>
-          <cell r="C269">
-            <v>32.18</v>
-          </cell>
-          <cell r="D269">
-            <v>-16</v>
-          </cell>
-          <cell r="F269">
-            <v>47.82</v>
-          </cell>
-          <cell r="G269">
-            <v>-0.36</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>269</v>
-          </cell>
-          <cell r="B270">
-            <v>43.45</v>
-          </cell>
-          <cell r="C270">
-            <v>58.76</v>
-          </cell>
-          <cell r="D270">
-            <v>15.31</v>
-          </cell>
-          <cell r="F270">
-            <v>58.83</v>
-          </cell>
-          <cell r="G270">
-            <v>15.37</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>270</v>
-          </cell>
-          <cell r="B271">
-            <v>40.58</v>
-          </cell>
-          <cell r="C271">
-            <v>42.8</v>
-          </cell>
-          <cell r="D271">
-            <v>2.23</v>
-          </cell>
-          <cell r="F271">
-            <v>36.200000000000003</v>
-          </cell>
-          <cell r="G271">
-            <v>-4.38</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>271</v>
-          </cell>
-          <cell r="B272">
-            <v>28.3</v>
-          </cell>
-          <cell r="C272">
-            <v>33.54</v>
-          </cell>
-          <cell r="D272">
-            <v>5.25</v>
-          </cell>
-          <cell r="F272">
-            <v>32.909999999999997</v>
-          </cell>
-          <cell r="G272">
-            <v>4.6100000000000003</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>272</v>
-          </cell>
-          <cell r="B273">
-            <v>13.79</v>
-          </cell>
-          <cell r="C273">
-            <v>5.32</v>
-          </cell>
-          <cell r="D273">
-            <v>-8.4700000000000006</v>
-          </cell>
-          <cell r="F273">
-            <v>5.56</v>
-          </cell>
-          <cell r="G273">
-            <v>-8.23</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>273</v>
-          </cell>
-          <cell r="B274">
-            <v>26.42</v>
-          </cell>
-          <cell r="C274">
-            <v>11.78</v>
-          </cell>
-          <cell r="D274">
-            <v>-14.63</v>
-          </cell>
-          <cell r="F274">
-            <v>22.43</v>
-          </cell>
-          <cell r="G274">
-            <v>-3.98</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>274</v>
-          </cell>
-          <cell r="B275">
-            <v>23.64</v>
-          </cell>
-          <cell r="C275">
-            <v>18.010000000000002</v>
-          </cell>
-          <cell r="D275">
-            <v>-5.63</v>
-          </cell>
-          <cell r="F275">
-            <v>32.72</v>
-          </cell>
-          <cell r="G275">
-            <v>9.08</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>275</v>
-          </cell>
-          <cell r="B276">
-            <v>90.01</v>
-          </cell>
-          <cell r="C276">
-            <v>58.69</v>
-          </cell>
-          <cell r="D276">
-            <v>-31.32</v>
-          </cell>
-          <cell r="F276">
-            <v>96.44</v>
-          </cell>
-          <cell r="G276">
-            <v>6.43</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>276</v>
-          </cell>
-          <cell r="B277">
-            <v>199.41</v>
-          </cell>
-          <cell r="C277">
-            <v>62.98</v>
-          </cell>
-          <cell r="D277">
-            <v>-136.41999999999999</v>
-          </cell>
-          <cell r="F277">
-            <v>132.41</v>
-          </cell>
-          <cell r="G277">
-            <v>-67</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>277</v>
-          </cell>
-          <cell r="B278">
-            <v>242.63</v>
-          </cell>
-          <cell r="C278">
-            <v>71.349999999999994</v>
-          </cell>
-          <cell r="D278">
-            <v>-171.28</v>
-          </cell>
-          <cell r="F278">
-            <v>228.62</v>
-          </cell>
-          <cell r="G278">
-            <v>-14.02</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>278</v>
-          </cell>
-          <cell r="B279">
-            <v>227.45</v>
-          </cell>
-          <cell r="C279">
-            <v>99.66</v>
-          </cell>
-          <cell r="D279">
-            <v>-127.8</v>
-          </cell>
-          <cell r="F279">
-            <v>263.37</v>
-          </cell>
-          <cell r="G279">
-            <v>35.92</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>279</v>
-          </cell>
-          <cell r="B280">
-            <v>9.17</v>
-          </cell>
-          <cell r="C280">
-            <v>4.37</v>
-          </cell>
-          <cell r="D280">
-            <v>-4.8099999999999996</v>
-          </cell>
-          <cell r="F280">
-            <v>29.54</v>
-          </cell>
-          <cell r="G280">
-            <v>20.37</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>280</v>
-          </cell>
-          <cell r="B281">
-            <v>13.74</v>
-          </cell>
-          <cell r="C281">
-            <v>6.27</v>
-          </cell>
-          <cell r="D281">
-            <v>-7.47</v>
-          </cell>
-          <cell r="F281">
-            <v>14.08</v>
-          </cell>
-          <cell r="G281">
-            <v>0.34</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>281</v>
-          </cell>
-          <cell r="B282">
-            <v>6.67</v>
-          </cell>
-          <cell r="C282">
-            <v>2.4300000000000002</v>
-          </cell>
-          <cell r="D282">
-            <v>-4.25</v>
-          </cell>
-          <cell r="F282">
-            <v>6.58</v>
-          </cell>
-          <cell r="G282">
-            <v>-0.09</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>282</v>
-          </cell>
-          <cell r="B283">
-            <v>9.74</v>
-          </cell>
-          <cell r="C283">
-            <v>3.92</v>
-          </cell>
-          <cell r="D283">
-            <v>-5.82</v>
-          </cell>
-          <cell r="F283">
-            <v>15.24</v>
-          </cell>
-          <cell r="G283">
-            <v>5.5</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>283</v>
-          </cell>
-          <cell r="B284">
-            <v>16.57</v>
-          </cell>
-          <cell r="C284">
-            <v>6.8</v>
-          </cell>
-          <cell r="D284">
-            <v>-9.77</v>
-          </cell>
-          <cell r="F284">
-            <v>25.71</v>
-          </cell>
-          <cell r="G284">
-            <v>9.1300000000000008</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>284</v>
-          </cell>
-          <cell r="B285">
-            <v>28.24</v>
-          </cell>
-          <cell r="C285">
-            <v>12.81</v>
-          </cell>
-          <cell r="D285">
-            <v>-15.43</v>
-          </cell>
-          <cell r="F285">
-            <v>26.91</v>
-          </cell>
-          <cell r="G285">
-            <v>-1.34</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>285</v>
-          </cell>
-          <cell r="B286">
-            <v>92.31</v>
-          </cell>
-          <cell r="C286">
-            <v>67.760000000000005</v>
-          </cell>
-          <cell r="D286">
-            <v>-24.55</v>
-          </cell>
-          <cell r="F286">
-            <v>94.91</v>
-          </cell>
-          <cell r="G286">
-            <v>2.6</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>286</v>
-          </cell>
-          <cell r="B287">
-            <v>109.7</v>
-          </cell>
-          <cell r="C287">
-            <v>52.23</v>
-          </cell>
-          <cell r="D287">
-            <v>-57.47</v>
-          </cell>
-          <cell r="F287">
-            <v>126.32</v>
-          </cell>
-          <cell r="G287">
-            <v>16.63</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>287</v>
-          </cell>
-          <cell r="B288">
-            <v>195.14</v>
-          </cell>
-          <cell r="C288">
-            <v>72.06</v>
-          </cell>
-          <cell r="D288">
-            <v>-123.07</v>
-          </cell>
-          <cell r="F288">
-            <v>197.07</v>
-          </cell>
-          <cell r="G288">
-            <v>1.94</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>288</v>
-          </cell>
-          <cell r="B289">
-            <v>277.83</v>
-          </cell>
-          <cell r="C289">
-            <v>124.82</v>
-          </cell>
-          <cell r="D289">
-            <v>-153.01</v>
-          </cell>
-          <cell r="F289">
-            <v>298.55</v>
-          </cell>
-          <cell r="G289">
-            <v>20.72</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>289</v>
-          </cell>
-          <cell r="B290">
-            <v>57.84</v>
-          </cell>
-          <cell r="C290">
-            <v>19.16</v>
-          </cell>
-          <cell r="D290">
-            <v>-38.69</v>
-          </cell>
-          <cell r="F290">
-            <v>53.83</v>
-          </cell>
-          <cell r="G290">
-            <v>-4.01</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>290</v>
-          </cell>
-          <cell r="B291">
-            <v>52.46</v>
-          </cell>
-          <cell r="C291">
-            <v>87.83</v>
-          </cell>
-          <cell r="D291">
-            <v>35.369999999999997</v>
-          </cell>
-          <cell r="F291">
-            <v>83.86</v>
-          </cell>
-          <cell r="G291">
-            <v>31.4</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>291</v>
-          </cell>
-          <cell r="B292">
-            <v>76.38</v>
-          </cell>
-          <cell r="C292">
-            <v>122.42</v>
-          </cell>
-          <cell r="D292">
-            <v>46.05</v>
-          </cell>
-          <cell r="F292">
-            <v>94.15</v>
-          </cell>
-          <cell r="G292">
-            <v>17.78</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>292</v>
-          </cell>
-          <cell r="B293">
-            <v>49.66</v>
-          </cell>
-          <cell r="C293">
-            <v>47.44</v>
-          </cell>
-          <cell r="D293">
-            <v>-2.2200000000000002</v>
-          </cell>
-          <cell r="F293">
-            <v>35.340000000000003</v>
-          </cell>
-          <cell r="G293">
-            <v>-14.32</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>293</v>
-          </cell>
-          <cell r="B294">
-            <v>29.43</v>
-          </cell>
-          <cell r="C294">
-            <v>27.12</v>
-          </cell>
-          <cell r="D294">
-            <v>-2.31</v>
-          </cell>
-          <cell r="F294">
-            <v>24.06</v>
-          </cell>
-          <cell r="G294">
-            <v>-5.37</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>294</v>
-          </cell>
-          <cell r="B295">
-            <v>49.36</v>
-          </cell>
-          <cell r="C295">
-            <v>45.31</v>
-          </cell>
-          <cell r="D295">
-            <v>-4.05</v>
-          </cell>
-          <cell r="F295">
-            <v>42.8</v>
-          </cell>
-          <cell r="G295">
-            <v>-6.55</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>295</v>
-          </cell>
-          <cell r="B296">
-            <v>56.17</v>
-          </cell>
-          <cell r="C296">
-            <v>29.89</v>
-          </cell>
-          <cell r="D296">
-            <v>-26.29</v>
-          </cell>
-          <cell r="F296">
-            <v>34.17</v>
-          </cell>
-          <cell r="G296">
-            <v>-22.01</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>296</v>
-          </cell>
-          <cell r="B297">
-            <v>38.630000000000003</v>
-          </cell>
-          <cell r="C297">
-            <v>28.65</v>
-          </cell>
-          <cell r="D297">
-            <v>-9.98</v>
-          </cell>
-          <cell r="F297">
-            <v>44.48</v>
-          </cell>
-          <cell r="G297">
-            <v>5.85</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>297</v>
-          </cell>
-          <cell r="B298">
-            <v>31.75</v>
-          </cell>
-          <cell r="C298">
-            <v>23.09</v>
-          </cell>
-          <cell r="D298">
-            <v>-8.66</v>
-          </cell>
-          <cell r="F298">
-            <v>32.880000000000003</v>
-          </cell>
-          <cell r="G298">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>298</v>
-          </cell>
-          <cell r="B299">
-            <v>15.78</v>
-          </cell>
-          <cell r="C299">
-            <v>8.39</v>
-          </cell>
-          <cell r="D299">
-            <v>-7.39</v>
-          </cell>
-          <cell r="F299">
-            <v>19.43</v>
-          </cell>
-          <cell r="G299">
-            <v>3.65</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>299</v>
-          </cell>
-          <cell r="B300">
-            <v>8.39</v>
-          </cell>
-          <cell r="C300">
-            <v>6.39</v>
-          </cell>
-          <cell r="D300">
-            <v>-2</v>
-          </cell>
-          <cell r="F300">
-            <v>14.78</v>
-          </cell>
-          <cell r="G300">
-            <v>6.39</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>300</v>
-          </cell>
-          <cell r="B301">
-            <v>7.13</v>
-          </cell>
-          <cell r="C301">
-            <v>5.25</v>
-          </cell>
-          <cell r="D301">
-            <v>-1.88</v>
-          </cell>
-          <cell r="F301">
-            <v>8.1199999999999992</v>
-          </cell>
-          <cell r="G301">
-            <v>0.99</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>301</v>
-          </cell>
-          <cell r="B302">
-            <v>21.15</v>
-          </cell>
-          <cell r="C302">
-            <v>10.130000000000001</v>
-          </cell>
-          <cell r="D302">
-            <v>-11.02</v>
-          </cell>
-          <cell r="F302">
-            <v>21.79</v>
-          </cell>
-          <cell r="G302">
-            <v>0.64</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>302</v>
-          </cell>
-          <cell r="B303">
-            <v>41.01</v>
-          </cell>
-          <cell r="C303">
-            <v>13.3</v>
-          </cell>
-          <cell r="D303">
-            <v>-27.72</v>
-          </cell>
-          <cell r="F303">
-            <v>25.07</v>
-          </cell>
-          <cell r="G303">
-            <v>-15.94</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>303</v>
-          </cell>
-          <cell r="B304">
-            <v>72.239999999999995</v>
-          </cell>
-          <cell r="C304">
-            <v>18.13</v>
-          </cell>
-          <cell r="D304">
-            <v>-54.11</v>
-          </cell>
-          <cell r="F304">
-            <v>69.239999999999995</v>
-          </cell>
-          <cell r="G304">
-            <v>-3</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>304</v>
-          </cell>
-          <cell r="B305">
-            <v>79.040000000000006</v>
-          </cell>
-          <cell r="C305">
-            <v>37.22</v>
-          </cell>
-          <cell r="D305">
-            <v>-41.83</v>
-          </cell>
-          <cell r="F305">
-            <v>99.29</v>
-          </cell>
-          <cell r="G305">
-            <v>20.239999999999998</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>305</v>
-          </cell>
-          <cell r="B306">
-            <v>147.07</v>
-          </cell>
-          <cell r="C306">
-            <v>84.68</v>
-          </cell>
-          <cell r="D306">
-            <v>-62.39</v>
-          </cell>
-          <cell r="F306">
-            <v>135.63999999999999</v>
-          </cell>
-          <cell r="G306">
-            <v>-11.43</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>306</v>
-          </cell>
-          <cell r="B307">
-            <v>196.83</v>
-          </cell>
-          <cell r="C307">
-            <v>165.2</v>
-          </cell>
-          <cell r="D307">
-            <v>-31.63</v>
-          </cell>
-          <cell r="F307">
-            <v>211.48</v>
-          </cell>
-          <cell r="G307">
-            <v>14.65</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>307</v>
-          </cell>
-          <cell r="B308">
-            <v>113.72</v>
-          </cell>
-          <cell r="C308">
-            <v>71.36</v>
-          </cell>
-          <cell r="D308">
-            <v>-42.36</v>
-          </cell>
-          <cell r="F308">
-            <v>96.32</v>
-          </cell>
-          <cell r="G308">
-            <v>-17.39</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>308</v>
-          </cell>
-          <cell r="B309">
-            <v>21.65</v>
-          </cell>
-          <cell r="C309">
-            <v>15.08</v>
-          </cell>
-          <cell r="D309">
-            <v>-6.57</v>
-          </cell>
-          <cell r="F309">
-            <v>36.270000000000003</v>
-          </cell>
-          <cell r="G309">
-            <v>14.62</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>309</v>
-          </cell>
-          <cell r="B310">
-            <v>22.9</v>
-          </cell>
-          <cell r="C310">
-            <v>15.04</v>
-          </cell>
-          <cell r="D310">
-            <v>-7.85</v>
-          </cell>
-          <cell r="F310">
-            <v>28.74</v>
-          </cell>
-          <cell r="G310">
-            <v>5.85</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>310</v>
-          </cell>
-          <cell r="B311">
-            <v>59.88</v>
-          </cell>
-          <cell r="C311">
-            <v>38.619999999999997</v>
-          </cell>
-          <cell r="D311">
-            <v>-21.26</v>
-          </cell>
-          <cell r="F311">
-            <v>49.23</v>
-          </cell>
-          <cell r="G311">
-            <v>-10.65</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>311</v>
-          </cell>
-          <cell r="B312">
-            <v>120.68</v>
-          </cell>
-          <cell r="C312">
-            <v>76.34</v>
-          </cell>
-          <cell r="D312">
-            <v>-44.34</v>
-          </cell>
-          <cell r="F312">
-            <v>96.14</v>
-          </cell>
-          <cell r="G312">
-            <v>-24.55</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>312</v>
-          </cell>
-          <cell r="B313">
-            <v>124.59</v>
-          </cell>
-          <cell r="C313">
-            <v>114.52</v>
-          </cell>
-          <cell r="D313">
-            <v>-10.06</v>
-          </cell>
-          <cell r="F313">
-            <v>126.12</v>
-          </cell>
-          <cell r="G313">
-            <v>1.53</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>313</v>
-          </cell>
-          <cell r="B314">
-            <v>103.63</v>
-          </cell>
-          <cell r="C314">
-            <v>102.85</v>
-          </cell>
-          <cell r="D314">
-            <v>-0.78</v>
-          </cell>
-          <cell r="F314">
-            <v>105.26</v>
-          </cell>
-          <cell r="G314">
-            <v>1.63</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>314</v>
-          </cell>
-          <cell r="B315">
-            <v>146.27000000000001</v>
-          </cell>
-          <cell r="C315">
-            <v>127.82</v>
-          </cell>
-          <cell r="D315">
-            <v>-18.45</v>
-          </cell>
-          <cell r="F315">
-            <v>118.88</v>
-          </cell>
-          <cell r="G315">
-            <v>-27.39</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>315</v>
-          </cell>
-          <cell r="B316">
-            <v>205.53</v>
-          </cell>
-          <cell r="C316">
-            <v>150.77000000000001</v>
-          </cell>
-          <cell r="D316">
-            <v>-54.75</v>
-          </cell>
-          <cell r="F316">
-            <v>144.26</v>
-          </cell>
-          <cell r="G316">
-            <v>-61.27</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>316</v>
-          </cell>
-          <cell r="B317">
-            <v>253.09</v>
-          </cell>
-          <cell r="C317">
-            <v>163.93</v>
-          </cell>
-          <cell r="D317">
-            <v>-89.15</v>
-          </cell>
-          <cell r="F317">
-            <v>203.62</v>
-          </cell>
-          <cell r="G317">
-            <v>-49.47</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>317</v>
-          </cell>
-          <cell r="B318">
-            <v>201.74</v>
-          </cell>
-          <cell r="C318">
-            <v>108.55</v>
-          </cell>
-          <cell r="D318">
-            <v>-93.18</v>
-          </cell>
-          <cell r="F318">
-            <v>204.15</v>
-          </cell>
-          <cell r="G318">
-            <v>2.42</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>318</v>
-          </cell>
-          <cell r="B319">
-            <v>59.45</v>
-          </cell>
-          <cell r="C319">
-            <v>50.44</v>
-          </cell>
-          <cell r="D319">
-            <v>-9.01</v>
-          </cell>
-          <cell r="F319">
-            <v>88.17</v>
-          </cell>
-          <cell r="G319">
-            <v>28.71</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>319</v>
-          </cell>
-          <cell r="B320">
-            <v>64.77</v>
-          </cell>
-          <cell r="C320">
-            <v>51.97</v>
-          </cell>
-          <cell r="D320">
-            <v>-12.81</v>
-          </cell>
-          <cell r="F320">
-            <v>56.23</v>
-          </cell>
-          <cell r="G320">
-            <v>-8.5399999999999991</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>320</v>
-          </cell>
-          <cell r="B321">
-            <v>66.2</v>
-          </cell>
-          <cell r="C321">
-            <v>46.95</v>
-          </cell>
-          <cell r="D321">
-            <v>-19.25</v>
-          </cell>
-          <cell r="F321">
-            <v>58.21</v>
-          </cell>
-          <cell r="G321">
-            <v>-7.98</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>321</v>
-          </cell>
-          <cell r="B322">
-            <v>75.61</v>
-          </cell>
-          <cell r="C322">
-            <v>62.79</v>
-          </cell>
-          <cell r="D322">
-            <v>-12.81</v>
-          </cell>
-          <cell r="F322">
-            <v>81.11</v>
-          </cell>
-          <cell r="G322">
-            <v>5.51</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>322</v>
-          </cell>
-          <cell r="B323">
-            <v>66.17</v>
-          </cell>
-          <cell r="C323">
-            <v>41.68</v>
-          </cell>
-          <cell r="D323">
-            <v>-24.49</v>
-          </cell>
-          <cell r="F323">
-            <v>60.34</v>
-          </cell>
-          <cell r="G323">
-            <v>-5.83</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>323</v>
-          </cell>
-          <cell r="B324">
-            <v>43.13</v>
-          </cell>
-          <cell r="C324">
-            <v>37.76</v>
-          </cell>
-          <cell r="D324">
-            <v>-5.37</v>
-          </cell>
-          <cell r="F324">
-            <v>58.67</v>
-          </cell>
-          <cell r="G324">
-            <v>15.54</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="A325">
-            <v>324</v>
-          </cell>
-          <cell r="B325">
-            <v>52.04</v>
-          </cell>
-          <cell r="C325">
-            <v>22.85</v>
-          </cell>
-          <cell r="D325">
-            <v>-29.19</v>
-          </cell>
-          <cell r="F325">
-            <v>36.549999999999997</v>
-          </cell>
-          <cell r="G325">
-            <v>-15.49</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="A326">
-            <v>325</v>
-          </cell>
-          <cell r="B326">
-            <v>29.9</v>
-          </cell>
-          <cell r="C326">
-            <v>17.28</v>
-          </cell>
-          <cell r="D326">
-            <v>-12.62</v>
-          </cell>
-          <cell r="F326">
-            <v>33.270000000000003</v>
-          </cell>
-          <cell r="G326">
-            <v>3.37</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="A327">
-            <v>326</v>
-          </cell>
-          <cell r="B327">
-            <v>40.25</v>
-          </cell>
-          <cell r="C327">
-            <v>26.43</v>
-          </cell>
-          <cell r="D327">
-            <v>-13.82</v>
-          </cell>
-          <cell r="F327">
-            <v>38.33</v>
-          </cell>
-          <cell r="G327">
-            <v>-1.91</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="A328">
-            <v>327</v>
-          </cell>
-          <cell r="B328">
-            <v>53.56</v>
-          </cell>
-          <cell r="C328">
-            <v>17.920000000000002</v>
-          </cell>
-          <cell r="D328">
-            <v>-35.630000000000003</v>
-          </cell>
-          <cell r="F328">
-            <v>30.66</v>
-          </cell>
-          <cell r="G328">
-            <v>-22.9</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="A329">
-            <v>328</v>
-          </cell>
-          <cell r="B329">
-            <v>27.76</v>
-          </cell>
-          <cell r="C329">
-            <v>21.03</v>
-          </cell>
-          <cell r="D329">
-            <v>-6.73</v>
-          </cell>
-          <cell r="F329">
-            <v>19.850000000000001</v>
-          </cell>
-          <cell r="G329">
-            <v>-7.91</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="A330">
-            <v>329</v>
-          </cell>
-          <cell r="B330">
-            <v>190.18</v>
-          </cell>
-          <cell r="C330">
-            <v>87.06</v>
-          </cell>
-          <cell r="D330">
-            <v>-103.13</v>
-          </cell>
-          <cell r="F330">
-            <v>154.11000000000001</v>
-          </cell>
-          <cell r="G330">
-            <v>-36.08</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="A331">
-            <v>330</v>
-          </cell>
-          <cell r="B331">
-            <v>245.03</v>
-          </cell>
-          <cell r="C331">
-            <v>112.21</v>
-          </cell>
-          <cell r="D331">
-            <v>-132.82</v>
-          </cell>
-          <cell r="F331">
-            <v>270.2</v>
-          </cell>
-          <cell r="G331">
-            <v>25.17</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="A332">
-            <v>331</v>
-          </cell>
-          <cell r="B332">
-            <v>236.02</v>
-          </cell>
-          <cell r="C332">
-            <v>126.17</v>
-          </cell>
-          <cell r="D332">
-            <v>-109.86</v>
-          </cell>
-          <cell r="F332">
-            <v>308.08999999999997</v>
-          </cell>
-          <cell r="G332">
-            <v>72.069999999999993</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="A333">
-            <v>332</v>
-          </cell>
-          <cell r="B333">
-            <v>290.81</v>
-          </cell>
-          <cell r="C333">
-            <v>81.540000000000006</v>
-          </cell>
-          <cell r="D333">
-            <v>-209.26</v>
-          </cell>
-          <cell r="F333">
-            <v>275.77</v>
-          </cell>
-          <cell r="G333">
-            <v>-15.03</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="A334">
-            <v>333</v>
-          </cell>
-          <cell r="B334">
-            <v>443.05</v>
-          </cell>
-          <cell r="C334">
-            <v>121.28</v>
-          </cell>
-          <cell r="D334">
-            <v>-321.77</v>
-          </cell>
-          <cell r="F334">
-            <v>319.58999999999997</v>
-          </cell>
-          <cell r="G334">
-            <v>-123.46</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="A335">
-            <v>334</v>
-          </cell>
-          <cell r="B335">
-            <v>23.63</v>
-          </cell>
-          <cell r="C335">
-            <v>22.33</v>
-          </cell>
-          <cell r="D335">
-            <v>-1.3</v>
-          </cell>
-          <cell r="F335">
-            <v>37.770000000000003</v>
-          </cell>
-          <cell r="G335">
-            <v>14.14</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="A336">
-            <v>335</v>
-          </cell>
-          <cell r="B336">
-            <v>10.95</v>
-          </cell>
-          <cell r="C336">
-            <v>17.649999999999999</v>
-          </cell>
-          <cell r="D336">
-            <v>6.7</v>
-          </cell>
-          <cell r="F336">
-            <v>13.73</v>
-          </cell>
-          <cell r="G336">
-            <v>2.78</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="A337">
-            <v>336</v>
-          </cell>
-          <cell r="B337">
-            <v>26.12</v>
-          </cell>
-          <cell r="C337">
-            <v>24.57</v>
-          </cell>
-          <cell r="D337">
-            <v>-1.56</v>
-          </cell>
-          <cell r="F337">
-            <v>28.26</v>
-          </cell>
-          <cell r="G337">
-            <v>2.13</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="A338">
-            <v>337</v>
-          </cell>
-          <cell r="B338">
-            <v>46.12</v>
-          </cell>
-          <cell r="C338">
-            <v>38.65</v>
-          </cell>
-          <cell r="D338">
-            <v>-7.47</v>
-          </cell>
-          <cell r="F338">
-            <v>48.77</v>
-          </cell>
-          <cell r="G338">
-            <v>2.65</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="A339">
-            <v>338</v>
-          </cell>
-          <cell r="B339">
-            <v>117.02</v>
-          </cell>
-          <cell r="C339">
-            <v>94.79</v>
-          </cell>
-          <cell r="D339">
-            <v>-22.23</v>
-          </cell>
-          <cell r="F339">
-            <v>109.86</v>
-          </cell>
-          <cell r="G339">
-            <v>-7.16</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="A340">
-            <v>339</v>
-          </cell>
-          <cell r="B340">
-            <v>174.65</v>
-          </cell>
-          <cell r="C340">
-            <v>133.1</v>
-          </cell>
-          <cell r="D340">
-            <v>-41.54</v>
-          </cell>
-          <cell r="F340">
-            <v>187.36</v>
-          </cell>
-          <cell r="G340">
-            <v>12.71</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="A341">
-            <v>340</v>
-          </cell>
-          <cell r="B341">
-            <v>236.96</v>
-          </cell>
-          <cell r="C341">
-            <v>188.53</v>
-          </cell>
-          <cell r="D341">
-            <v>-48.43</v>
-          </cell>
-          <cell r="F341">
-            <v>232.45</v>
-          </cell>
-          <cell r="G341">
-            <v>-4.5199999999999996</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="A342">
-            <v>341</v>
-          </cell>
-          <cell r="B342">
-            <v>240.16</v>
-          </cell>
-          <cell r="C342">
-            <v>197.81</v>
-          </cell>
-          <cell r="D342">
-            <v>-42.35</v>
-          </cell>
-          <cell r="F342">
-            <v>244.1</v>
-          </cell>
-          <cell r="G342">
-            <v>3.94</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="A343">
-            <v>342</v>
-          </cell>
-          <cell r="B343">
-            <v>120.9</v>
-          </cell>
-          <cell r="C343">
-            <v>67.77</v>
-          </cell>
-          <cell r="D343">
-            <v>-53.14</v>
-          </cell>
-          <cell r="F343">
-            <v>113.51</v>
-          </cell>
-          <cell r="G343">
-            <v>-7.39</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="A344">
-            <v>343</v>
-          </cell>
-          <cell r="B344">
-            <v>43.16</v>
-          </cell>
-          <cell r="C344">
-            <v>43.54</v>
-          </cell>
-          <cell r="D344">
-            <v>0.38</v>
-          </cell>
-          <cell r="F344">
-            <v>60.66</v>
-          </cell>
-          <cell r="G344">
-            <v>17.5</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="A345">
-            <v>344</v>
-          </cell>
-          <cell r="B345">
-            <v>116.86</v>
-          </cell>
-          <cell r="C345">
-            <v>100.3</v>
-          </cell>
-          <cell r="D345">
-            <v>-16.559999999999999</v>
-          </cell>
-          <cell r="F345">
-            <v>102.4</v>
-          </cell>
-          <cell r="G345">
-            <v>-14.46</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="A346">
-            <v>345</v>
-          </cell>
-          <cell r="B346">
-            <v>181.9</v>
-          </cell>
-          <cell r="C346">
-            <v>126.84</v>
-          </cell>
-          <cell r="D346">
-            <v>-55.07</v>
-          </cell>
-          <cell r="F346">
-            <v>183.15</v>
-          </cell>
-          <cell r="G346">
-            <v>1.24</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="A347">
-            <v>346</v>
-          </cell>
-          <cell r="B347">
-            <v>118.23</v>
-          </cell>
-          <cell r="C347">
-            <v>100.44</v>
-          </cell>
-          <cell r="D347">
-            <v>-17.8</v>
-          </cell>
-          <cell r="F347">
-            <v>124.71</v>
-          </cell>
-          <cell r="G347">
-            <v>6.48</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>347</v>
-          </cell>
-          <cell r="B348">
-            <v>10.93</v>
-          </cell>
-          <cell r="C348">
-            <v>10.43</v>
-          </cell>
-          <cell r="D348">
-            <v>-0.5</v>
-          </cell>
-          <cell r="F348">
-            <v>12.63</v>
-          </cell>
-          <cell r="G348">
-            <v>1.7</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>348</v>
-          </cell>
-          <cell r="B349">
-            <v>8.06</v>
-          </cell>
-          <cell r="C349">
-            <v>7.79</v>
-          </cell>
-          <cell r="D349">
-            <v>-0.28000000000000003</v>
-          </cell>
-          <cell r="F349">
-            <v>11.29</v>
-          </cell>
-          <cell r="G349">
-            <v>3.22</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="A350">
-            <v>349</v>
-          </cell>
-          <cell r="B350">
-            <v>53.27</v>
-          </cell>
-          <cell r="C350">
-            <v>32.909999999999997</v>
-          </cell>
-          <cell r="D350">
-            <v>-20.350000000000001</v>
-          </cell>
-          <cell r="F350">
-            <v>41.84</v>
-          </cell>
-          <cell r="G350">
-            <v>-11.43</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="A351">
-            <v>350</v>
-          </cell>
-          <cell r="B351">
-            <v>59.96</v>
-          </cell>
-          <cell r="C351">
-            <v>40.51</v>
-          </cell>
-          <cell r="D351">
-            <v>-19.45</v>
-          </cell>
-          <cell r="F351">
-            <v>55.36</v>
-          </cell>
-          <cell r="G351">
-            <v>-4.5999999999999996</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="A352">
-            <v>351</v>
-          </cell>
-          <cell r="B352">
-            <v>116.68</v>
-          </cell>
-          <cell r="C352">
-            <v>91.86</v>
-          </cell>
-          <cell r="D352">
-            <v>-24.82</v>
-          </cell>
-          <cell r="F352">
-            <v>111.07</v>
-          </cell>
-          <cell r="G352">
-            <v>-5.62</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="A353">
-            <v>352</v>
-          </cell>
-          <cell r="B353">
-            <v>191.09</v>
-          </cell>
-          <cell r="C353">
-            <v>132.6</v>
-          </cell>
-          <cell r="D353">
-            <v>-58.48</v>
-          </cell>
-          <cell r="F353">
-            <v>193.72</v>
-          </cell>
-          <cell r="G353">
-            <v>2.64</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="A354">
-            <v>353</v>
-          </cell>
-          <cell r="B354">
-            <v>230.66</v>
-          </cell>
-          <cell r="C354">
-            <v>99.79</v>
-          </cell>
-          <cell r="D354">
-            <v>-130.87</v>
-          </cell>
-          <cell r="F354">
-            <v>208.44</v>
-          </cell>
-          <cell r="G354">
-            <v>-22.22</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="A355">
-            <v>354</v>
-          </cell>
-          <cell r="B355">
-            <v>279.48</v>
-          </cell>
-          <cell r="C355">
-            <v>120.11</v>
-          </cell>
-          <cell r="D355">
-            <v>-159.37</v>
-          </cell>
-          <cell r="F355">
-            <v>274.95</v>
-          </cell>
-          <cell r="G355">
-            <v>-4.53</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="A356">
-            <v>355</v>
-          </cell>
-          <cell r="B356">
-            <v>259.83</v>
-          </cell>
-          <cell r="C356">
-            <v>80.489999999999995</v>
-          </cell>
-          <cell r="D356">
-            <v>-179.34</v>
-          </cell>
-          <cell r="F356">
-            <v>249.54</v>
-          </cell>
-          <cell r="G356">
-            <v>-10.29</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="A357">
-            <v>356</v>
-          </cell>
-          <cell r="B357">
-            <v>141.41999999999999</v>
-          </cell>
-          <cell r="C357">
-            <v>51.39</v>
-          </cell>
-          <cell r="D357">
-            <v>-90.02</v>
-          </cell>
-          <cell r="F357">
-            <v>140.84</v>
-          </cell>
-          <cell r="G357">
-            <v>-0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="A358">
-            <v>357</v>
-          </cell>
-          <cell r="B358">
-            <v>416.97</v>
-          </cell>
-          <cell r="C358">
-            <v>59.69</v>
-          </cell>
-          <cell r="D358">
-            <v>-357.28</v>
-          </cell>
-          <cell r="F358">
-            <v>258.20999999999998</v>
-          </cell>
-          <cell r="G358">
-            <v>-158.76</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="A359">
-            <v>358</v>
-          </cell>
-          <cell r="B359">
-            <v>278.24</v>
-          </cell>
-          <cell r="C359">
-            <v>51.78</v>
-          </cell>
-          <cell r="D359">
-            <v>-226.46</v>
-          </cell>
-          <cell r="F359">
-            <v>241.73</v>
-          </cell>
-          <cell r="G359">
-            <v>-36.5</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="A360">
-            <v>359</v>
-          </cell>
-          <cell r="B360">
-            <v>45.83</v>
-          </cell>
-          <cell r="C360">
-            <v>51.83</v>
-          </cell>
-          <cell r="D360">
-            <v>6.01</v>
-          </cell>
-          <cell r="F360">
-            <v>74.59</v>
-          </cell>
-          <cell r="G360">
-            <v>28.77</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="A361">
-            <v>360</v>
-          </cell>
-          <cell r="B361">
-            <v>108.81</v>
-          </cell>
-          <cell r="C361">
-            <v>62.3</v>
-          </cell>
-          <cell r="D361">
-            <v>-46.51</v>
-          </cell>
-          <cell r="F361">
-            <v>72.849999999999994</v>
-          </cell>
-          <cell r="G361">
-            <v>-35.96</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="A362">
-            <v>361</v>
-          </cell>
-          <cell r="B362">
-            <v>255.84</v>
-          </cell>
-          <cell r="C362">
-            <v>107.68</v>
-          </cell>
-          <cell r="D362">
-            <v>-148.16</v>
-          </cell>
-          <cell r="F362">
-            <v>211.44</v>
-          </cell>
-          <cell r="G362">
-            <v>-44.4</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="A363">
-            <v>362</v>
-          </cell>
-          <cell r="B363">
-            <v>102.8</v>
-          </cell>
-          <cell r="C363">
-            <v>33.159999999999997</v>
-          </cell>
-          <cell r="D363">
-            <v>-69.64</v>
-          </cell>
-          <cell r="F363">
-            <v>84.98</v>
-          </cell>
-          <cell r="G363">
-            <v>-17.829999999999998</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="A364">
-            <v>363</v>
-          </cell>
-          <cell r="B364">
-            <v>62.09</v>
-          </cell>
-          <cell r="C364">
-            <v>64.48</v>
-          </cell>
-          <cell r="D364">
-            <v>2.39</v>
-          </cell>
-          <cell r="F364">
-            <v>106.19</v>
-          </cell>
-          <cell r="G364">
-            <v>44.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -69768,8 +62492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="65" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
